--- a/raw_data/Local_sens_Force.xlsx
+++ b/raw_data/Local_sens_Force.xlsx
@@ -238,31 +238,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH25"/>
+  <dimension ref="A1:BH24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
-    <col min="3" max="3" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.28515625" customWidth="true"/>
+    <col min="3" max="3" width="16.28515625" customWidth="true"/>
     <col min="4" max="4" width="16.28515625" customWidth="true"/>
-    <col min="5" max="5" width="16.28515625" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="16.28515625" customWidth="true"/>
     <col min="7" max="7" width="16.28515625" customWidth="true"/>
     <col min="8" max="8" width="16.28515625" customWidth="true"/>
     <col min="9" max="9" width="16.28515625" customWidth="true"/>
     <col min="10" max="10" width="16.28515625" customWidth="true"/>
     <col min="11" max="11" width="16.28515625" customWidth="true"/>
-    <col min="12" max="12" width="16.28515625" customWidth="true"/>
-    <col min="13" max="13" width="16.28515625" customWidth="true"/>
+    <col min="12" max="12" width="16.42578125" customWidth="true"/>
+    <col min="13" max="13" width="16.42578125" customWidth="true"/>
     <col min="14" max="14" width="16.28515625" customWidth="true"/>
     <col min="15" max="15" width="16.28515625" customWidth="true"/>
-    <col min="16" max="16" width="16.28515625" customWidth="true"/>
+    <col min="16" max="16" width="15.5703125" customWidth="true"/>
     <col min="17" max="17" width="16.28515625" customWidth="true"/>
     <col min="18" max="18" width="16.28515625" customWidth="true"/>
     <col min="19" max="19" width="16.28515625" customWidth="true"/>
-    <col min="20" max="20" width="16.28515625" customWidth="true"/>
+    <col min="20" max="20" width="15.5703125" customWidth="true"/>
     <col min="21" max="21" width="16.28515625" customWidth="true"/>
-    <col min="22" max="22" width="16.28515625" customWidth="true"/>
+    <col min="22" max="22" width="15.5703125" customWidth="true"/>
     <col min="23" max="23" width="16.28515625" customWidth="true"/>
     <col min="24" max="24" width="16.28515625" customWidth="true"/>
     <col min="25" max="25" width="16.28515625" customWidth="true"/>
@@ -270,37 +270,37 @@
     <col min="27" max="27" width="16.28515625" customWidth="true"/>
     <col min="28" max="28" width="16.28515625" customWidth="true"/>
     <col min="29" max="29" width="16.28515625" customWidth="true"/>
-    <col min="30" max="30" width="16.28515625" customWidth="true"/>
+    <col min="30" max="30" width="15.5703125" customWidth="true"/>
     <col min="31" max="31" width="16.28515625" customWidth="true"/>
     <col min="32" max="32" width="16.28515625" customWidth="true"/>
-    <col min="33" max="33" width="16.42578125" customWidth="true"/>
+    <col min="33" max="33" width="16.28515625" customWidth="true"/>
     <col min="34" max="34" width="16.28515625" customWidth="true"/>
-    <col min="35" max="35" width="16.42578125" customWidth="true"/>
-    <col min="36" max="36" width="16.42578125" customWidth="true"/>
-    <col min="37" max="37" width="16.42578125" customWidth="true"/>
+    <col min="35" max="35" width="16.28515625" customWidth="true"/>
+    <col min="36" max="36" width="16.28515625" customWidth="true"/>
+    <col min="37" max="37" width="16.28515625" customWidth="true"/>
     <col min="38" max="38" width="16.28515625" customWidth="true"/>
-    <col min="39" max="39" width="16.28515625" customWidth="true"/>
-    <col min="40" max="40" width="16.42578125" customWidth="true"/>
-    <col min="41" max="41" width="16.42578125" customWidth="true"/>
-    <col min="42" max="42" width="16.42578125" customWidth="true"/>
-    <col min="43" max="43" width="16.42578125" customWidth="true"/>
-    <col min="44" max="44" width="16.42578125" customWidth="true"/>
-    <col min="45" max="45" width="16.42578125" customWidth="true"/>
-    <col min="46" max="46" width="16.42578125" customWidth="true"/>
-    <col min="47" max="47" width="16.42578125" customWidth="true"/>
-    <col min="48" max="48" width="16.42578125" customWidth="true"/>
-    <col min="49" max="49" width="16.42578125" customWidth="true"/>
-    <col min="50" max="50" width="16.42578125" customWidth="true"/>
-    <col min="51" max="51" width="16.42578125" customWidth="true"/>
-    <col min="52" max="52" width="16.42578125" customWidth="true"/>
-    <col min="53" max="53" width="16.42578125" customWidth="true"/>
-    <col min="54" max="54" width="16.42578125" customWidth="true"/>
-    <col min="55" max="55" width="16.42578125" customWidth="true"/>
-    <col min="56" max="56" width="16.42578125" customWidth="true"/>
-    <col min="57" max="57" width="16.42578125" customWidth="true"/>
+    <col min="39" max="39" width="15.5703125" customWidth="true"/>
+    <col min="40" max="40" width="16.28515625" customWidth="true"/>
+    <col min="41" max="41" width="15.5703125" customWidth="true"/>
+    <col min="42" max="42" width="15.28515625" customWidth="true"/>
+    <col min="43" max="43" width="16.28515625" customWidth="true"/>
+    <col min="44" max="44" width="16.28515625" customWidth="true"/>
+    <col min="45" max="45" width="16.28515625" customWidth="true"/>
+    <col min="46" max="46" width="16.28515625" customWidth="true"/>
+    <col min="47" max="47" width="16.28515625" customWidth="true"/>
+    <col min="48" max="48" width="16.28515625" customWidth="true"/>
+    <col min="49" max="49" width="16.28515625" customWidth="true"/>
+    <col min="50" max="50" width="15.5703125" customWidth="true"/>
+    <col min="51" max="51" width="16.28515625" customWidth="true"/>
+    <col min="52" max="52" width="16.28515625" customWidth="true"/>
+    <col min="53" max="53" width="15.5703125" customWidth="true"/>
+    <col min="54" max="54" width="16.28515625" customWidth="true"/>
+    <col min="55" max="55" width="16.28515625" customWidth="true"/>
+    <col min="56" max="56" width="16.28515625" customWidth="true"/>
+    <col min="57" max="57" width="16.28515625" customWidth="true"/>
     <col min="58" max="58" width="16.28515625" customWidth="true"/>
-    <col min="59" max="59" width="16.42578125" customWidth="true"/>
-    <col min="60" max="60" width="16.42578125" customWidth="true"/>
+    <col min="59" max="59" width="16.28515625" customWidth="true"/>
+    <col min="60" max="60" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,2004 +487,2004 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.016870387130123451</v>
+        <v>0.0062657419759788646</v>
       </c>
       <c r="B2" s="0">
-        <v>0.013721085618744355</v>
+        <v>0.011765162073681395</v>
       </c>
       <c r="C2" s="0">
-        <v>0.020145716425900809</v>
+        <v>0.017274508588152198</v>
       </c>
       <c r="D2" s="0">
-        <v>0.026364295030219493</v>
+        <v>0.022501591772380841</v>
       </c>
       <c r="E2" s="0">
-        <v>0.032039215913141364</v>
+        <v>0.027306374807465617</v>
       </c>
       <c r="F2" s="0">
-        <v>0.037152252029980549</v>
+        <v>0.031634308945853458</v>
       </c>
       <c r="G2" s="0">
-        <v>0.041730157474511087</v>
+        <v>0.035479896739472119</v>
       </c>
       <c r="H2" s="0">
-        <v>0.045819719892998212</v>
+        <v>0.038866280728537601</v>
       </c>
       <c r="I2" s="0">
-        <v>0.049471448144046692</v>
+        <v>0.041829223509236929</v>
       </c>
       <c r="J2" s="0">
-        <v>0.052737060346618778</v>
+        <v>0.04441329276512028</v>
       </c>
       <c r="K2" s="0">
-        <v>0.055661341113373661</v>
+        <v>0.046662112510958142</v>
       </c>
       <c r="L2" s="0">
-        <v>0.058291809829335996</v>
+        <v>0.048618178703208663</v>
       </c>
       <c r="M2" s="0">
-        <v>0.060663210891878171</v>
+        <v>0.050321136588817907</v>
       </c>
       <c r="N2" s="0">
-        <v>0.062811871954345941</v>
+        <v>0.051806476066332402</v>
       </c>
       <c r="O2" s="0">
-        <v>0.064764871309689206</v>
+        <v>0.053106147603327485</v>
       </c>
       <c r="P2" s="0">
-        <v>0.066547814965012539</v>
+        <v>0.054247711588238927</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.068183116719781764</v>
+        <v>0.055254911694304007</v>
       </c>
       <c r="R2" s="0">
-        <v>0.069688642977371609</v>
+        <v>0.056148234552379224</v>
       </c>
       <c r="S2" s="0">
-        <v>0.071080435525084237</v>
+        <v>0.056945631353490449</v>
       </c>
       <c r="T2" s="0">
-        <v>0.072371833680643108</v>
+        <v>0.057661725897890988</v>
       </c>
       <c r="U2" s="0">
-        <v>0.073576226074315895</v>
+        <v>0.058308840258317569</v>
       </c>
       <c r="V2" s="0">
-        <v>0.074703493710478089</v>
+        <v>0.058897316238749775</v>
       </c>
       <c r="W2" s="0">
-        <v>0.07576209912043351</v>
+        <v>0.059436199044996994</v>
       </c>
       <c r="X2" s="0">
-        <v>0.076759138130524901</v>
+        <v>0.059932750152396325</v>
       </c>
       <c r="Y2" s="0">
-        <v>0.077701598668999103</v>
+        <v>0.060392447553067649</v>
       </c>
       <c r="Z2" s="0">
-        <v>0.078595346010924064</v>
+        <v>0.060820581453601169</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.079444680668269707</v>
+        <v>0.061221325642686029</v>
       </c>
       <c r="AB2" s="0">
-        <v>0.080253724935875084</v>
+        <v>0.061598098821521625</v>
       </c>
       <c r="AC2" s="0">
-        <v>0.08102578643513389</v>
+        <v>0.061953719129982862</v>
       </c>
       <c r="AD2" s="0">
-        <v>0.081764069250738675</v>
+        <v>0.062290514046431537</v>
       </c>
       <c r="AE2" s="0">
-        <v>0.082471253751906518</v>
+        <v>0.062610405693988402</v>
       </c>
       <c r="AF2" s="0">
-        <v>0.083148397172976743</v>
+        <v>0.06291498360564074</v>
       </c>
       <c r="AG2" s="0">
-        <v>0.083798264084278457</v>
+        <v>0.063205949238198958</v>
       </c>
       <c r="AH2" s="0">
-        <v>0.084422148323274701</v>
+        <v>0.063483608385395143</v>
       </c>
       <c r="AI2" s="0">
-        <v>0.085021403365233228</v>
+        <v>0.063749249072917069</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0.08559711497952914</v>
+        <v>0.064003654032503771</v>
       </c>
       <c r="AK2" s="0">
-        <v>0.086149664690907068</v>
+        <v>0.064247460648582499</v>
       </c>
       <c r="AL2" s="0">
-        <v>0.086680138639437562</v>
+        <v>0.064481195893603141</v>
       </c>
       <c r="AM2" s="0">
-        <v>0.087189564894296051</v>
+        <v>0.064705313703789624</v>
       </c>
       <c r="AN2" s="0">
-        <v>0.087678350797477503</v>
+        <v>0.064920193103703547</v>
       </c>
       <c r="AO2" s="0">
-        <v>0.08814619945105337</v>
+        <v>0.065126172112076872</v>
       </c>
       <c r="AP2" s="0">
-        <v>0.088593820380620303</v>
+        <v>0.065323535782150735</v>
       </c>
       <c r="AQ2" s="0">
-        <v>0.089021510180585461</v>
+        <v>0.065512532131790147</v>
       </c>
       <c r="AR2" s="0">
-        <v>0.08942944956513324</v>
+        <v>0.065693384939194799</v>
       </c>
       <c r="AS2" s="0">
-        <v>0.089817679588796343</v>
+        <v>0.065866315206563109</v>
       </c>
       <c r="AT2" s="0">
-        <v>0.090186350791297207</v>
+        <v>0.066031387161083852</v>
       </c>
       <c r="AU2" s="0">
-        <v>0.090535496681438621</v>
+        <v>0.066188804172755689</v>
       </c>
       <c r="AV2" s="0">
-        <v>0.090864751887390086</v>
+        <v>0.066339046468563437</v>
       </c>
       <c r="AW2" s="0">
-        <v>0.091175053485696295</v>
+        <v>0.066481860196951958</v>
       </c>
       <c r="AX2" s="0">
-        <v>0.091465849773970223</v>
+        <v>0.066617328040820115</v>
       </c>
       <c r="AY2" s="0">
-        <v>0.091737095977161121</v>
+        <v>0.066745394787467327</v>
       </c>
       <c r="AZ2" s="0">
-        <v>0.091988820311843134</v>
+        <v>0.06686642475654038</v>
       </c>
       <c r="BA2" s="0">
-        <v>0.092220852278443968</v>
+        <v>0.066980155074643624</v>
       </c>
       <c r="BB2" s="0">
-        <v>0.092433222347436603</v>
+        <v>0.067086508603483253</v>
       </c>
       <c r="BC2" s="0">
-        <v>0.09262596913488122</v>
+        <v>0.067185796120523653</v>
       </c>
       <c r="BD2" s="0">
-        <v>0.092799016131806827</v>
+        <v>0.067278027057908932</v>
       </c>
       <c r="BE2" s="0">
-        <v>0.092952296802008949</v>
+        <v>0.067363394277191721</v>
       </c>
       <c r="BF2" s="0">
-        <v>0.093085772867068456</v>
+        <v>0.067441708651668444</v>
       </c>
       <c r="BG2" s="0">
-        <v>0.093199498200570371</v>
+        <v>0.067512814066915325</v>
       </c>
       <c r="BH2" s="0">
-        <v>0.093293428928684197</v>
+        <v>0.067576509949722127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.005919758703315247</v>
+        <v>-0.0049930484901835898</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.012520739081329613</v>
+        <v>-0.010551132123242863</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.019215097716665363</v>
+        <v>-0.016113482621999398</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.025466263259140649</v>
+        <v>-0.021390648860675709</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.031168231013509004</v>
+        <v>-0.026239934502113114</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.036305607807563853</v>
+        <v>-0.030611386218530351</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.040905735274072361</v>
+        <v>-0.034494811291672485</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.045015020425194417</v>
+        <v>-0.03791491913640662</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.048683235827006427</v>
+        <v>-0.04090877339105526</v>
       </c>
       <c r="J3" s="0">
-        <v>-0.051962692205896936</v>
+        <v>-0.043519601585972907</v>
       </c>
       <c r="K3" s="0">
-        <v>-0.05490164881939686</v>
+        <v>-0.045791904644983408</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.05754231094325131</v>
+        <v>-0.047768607991258157</v>
       </c>
       <c r="M3" s="0">
-        <v>-0.059922392619542936</v>
+        <v>-0.049489524918411014</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.062078057366632494</v>
+        <v>-0.050990570418065949</v>
       </c>
       <c r="O3" s="0">
-        <v>-0.064037275742869049</v>
+        <v>-0.052303723996217147</v>
       </c>
       <c r="P3" s="0">
-        <v>-0.065825388526583831</v>
+        <v>-0.053456834583485449</v>
       </c>
       <c r="Q3" s="0">
-        <v>-0.067464961985542957</v>
+        <v>-0.054473859803839016</v>
       </c>
       <c r="R3" s="0">
-        <v>-0.068973816579054423</v>
+        <v>-0.055375755104553059</v>
       </c>
       <c r="S3" s="0">
-        <v>-0.070368195857789861</v>
+        <v>-0.056180149811935393</v>
       </c>
       <c r="T3" s="0">
-        <v>-0.071663257523596618</v>
+        <v>-0.056901888212206715</v>
       </c>
       <c r="U3" s="0">
-        <v>-0.072869412899033092</v>
+        <v>-0.057553553930114458</v>
       </c>
       <c r="V3" s="0">
-        <v>-0.073997437454542514</v>
+        <v>-0.058145709960226326</v>
       </c>
       <c r="W3" s="0">
-        <v>-0.075056383006651323</v>
+        <v>-0.05868718940897525</v>
       </c>
       <c r="X3" s="0">
-        <v>-0.076053825214394383</v>
+        <v>-0.059185695585502567</v>
       </c>
       <c r="Y3" s="0">
-        <v>-0.076996266101755501</v>
+        <v>-0.059646688937870743</v>
       </c>
       <c r="Z3" s="0">
-        <v>-0.077889260149531375</v>
+        <v>-0.060075534381558646</v>
       </c>
       <c r="AA3" s="0">
-        <v>-0.078737610610087244</v>
+        <v>-0.060476482755836745</v>
       </c>
       <c r="AB3" s="0">
-        <v>-0.079545373715817727</v>
+        <v>-0.06085302238488581</v>
       </c>
       <c r="AC3" s="0">
-        <v>-0.080316069436321191</v>
+        <v>-0.061208033934651809</v>
       </c>
       <c r="AD3" s="0">
-        <v>-0.08105251968179053</v>
+        <v>-0.061543901838364598</v>
       </c>
       <c r="AE3" s="0">
-        <v>-0.081758110603993281</v>
+        <v>-0.061862598959614379</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.082433734108400825</v>
+        <v>-0.062165759982256874</v>
       </c>
       <c r="AG3" s="0">
-        <v>-0.083081715129814257</v>
+        <v>-0.062454358000047047</v>
       </c>
       <c r="AH3" s="0">
-        <v>-0.083703441818530303</v>
+        <v>-0.062730293319436858</v>
       </c>
       <c r="AI3" s="0">
-        <v>-0.084301074813892513</v>
+        <v>-0.062994136214694268</v>
       </c>
       <c r="AJ3" s="0">
-        <v>-0.084874696356395885</v>
+        <v>-0.063246657270816659</v>
       </c>
       <c r="AK3" s="0">
-        <v>-0.085425586206973658</v>
+        <v>-0.063488520537448384</v>
       </c>
       <c r="AL3" s="0">
-        <v>-0.085954488811179341</v>
+        <v>-0.063720461434316075</v>
       </c>
       <c r="AM3" s="0">
-        <v>-0.086461997622445982</v>
+        <v>-0.06394259506015347</v>
       </c>
       <c r="AN3" s="0">
-        <v>-0.086948662815010416</v>
+        <v>-0.064155511286776629</v>
       </c>
       <c r="AO3" s="0">
-        <v>-0.087414843309358323</v>
+        <v>-0.064359431117820956</v>
       </c>
       <c r="AP3" s="0">
-        <v>-0.087860832780547529</v>
+        <v>-0.064554976298026465</v>
       </c>
       <c r="AQ3" s="0">
-        <v>-0.088286939704837905</v>
+        <v>-0.064742199005912535</v>
       </c>
       <c r="AR3" s="0">
-        <v>-0.088693321541924372</v>
+        <v>-0.064921283055629816</v>
       </c>
       <c r="AS3" s="0">
-        <v>-0.089080110003653359</v>
+        <v>-0.06509263387457366</v>
       </c>
       <c r="AT3" s="0">
-        <v>-0.089447366663773356</v>
+        <v>-0.065256238808071659</v>
       </c>
       <c r="AU3" s="0">
-        <v>-0.089795298502562515</v>
+        <v>-0.065412251007555544</v>
       </c>
       <c r="AV3" s="0">
-        <v>-0.090123755824300322</v>
+        <v>-0.065561264615886114</v>
       </c>
       <c r="AW3" s="0">
-        <v>-0.09043277230714758</v>
+        <v>-0.065703032532953426</v>
       </c>
       <c r="AX3" s="0">
-        <v>-0.090722626335856996</v>
+        <v>-0.065837483585146253</v>
       </c>
       <c r="AY3" s="0">
-        <v>-0.090992769738838714</v>
+        <v>-0.065964840888229848</v>
       </c>
       <c r="AZ3" s="0">
-        <v>-0.091243596493173554</v>
+        <v>-0.066084902679347649</v>
       </c>
       <c r="BA3" s="0">
-        <v>-0.091474947377615287</v>
+        <v>-0.066198026224348602</v>
       </c>
       <c r="BB3" s="0">
-        <v>-0.091686739194971278</v>
+        <v>-0.066304224242788132</v>
       </c>
       <c r="BC3" s="0">
-        <v>-0.091879124924758943</v>
+        <v>-0.066403561473466238</v>
       </c>
       <c r="BD3" s="0">
-        <v>-0.092051897326206986</v>
+        <v>-0.066496027087476164</v>
       </c>
       <c r="BE3" s="0">
-        <v>-0.092205068912716293</v>
+        <v>-0.066581822150464265</v>
       </c>
       <c r="BF3" s="0">
-        <v>-0.092338632035136425</v>
+        <v>-0.066660628938841934</v>
       </c>
       <c r="BG3" s="0">
-        <v>-0.092452591794393468</v>
+        <v>-0.066732732395815855</v>
       </c>
       <c r="BH3" s="0">
-        <v>-0.092546946684410006</v>
+        <v>-0.066797934744897258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.10175920691564296</v>
+        <v>0.067589871296421966</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11213218206995233</v>
+        <v>0.085201767124095051</v>
       </c>
       <c r="C4" s="0">
-        <v>0.12934614506272307</v>
+        <v>0.10083114319529569</v>
       </c>
       <c r="D4" s="0">
-        <v>0.14394985496681004</v>
+        <v>0.11448149980799742</v>
       </c>
       <c r="E4" s="0">
-        <v>0.15613346678806952</v>
+        <v>0.12625657455852252</v>
       </c>
       <c r="F4" s="0">
-        <v>0.16629706645382525</v>
+        <v>0.13631194936281482</v>
       </c>
       <c r="G4" s="0">
-        <v>0.17478614760913239</v>
+        <v>0.14483843204603208</v>
       </c>
       <c r="H4" s="0">
-        <v>0.1818877391635661</v>
+        <v>0.15202534566604817</v>
       </c>
       <c r="I4" s="0">
-        <v>0.18784432318878255</v>
+        <v>0.15805930499798557</v>
       </c>
       <c r="J4" s="0">
-        <v>0.19284974762665616</v>
+        <v>0.16311298629416102</v>
       </c>
       <c r="K4" s="0">
-        <v>0.19707047736092331</v>
+        <v>0.16733933849450067</v>
       </c>
       <c r="L4" s="0">
-        <v>0.20064167603511127</v>
+        <v>0.17087279245893017</v>
       </c>
       <c r="M4" s="0">
-        <v>0.20367245620212582</v>
+        <v>0.17382995492251874</v>
       </c>
       <c r="N4" s="0">
-        <v>0.2062566621799849</v>
+        <v>0.17631034186566041</v>
       </c>
       <c r="O4" s="0">
-        <v>0.20846855363315245</v>
+        <v>0.17839870228296886</v>
       </c>
       <c r="P4" s="0">
-        <v>0.21037056623149128</v>
+        <v>0.18016576160969092</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.21201510338154692</v>
+        <v>0.18167051342138196</v>
       </c>
       <c r="R4" s="0">
-        <v>0.21344401987144632</v>
+        <v>0.18296215193207235</v>
       </c>
       <c r="S4" s="0">
-        <v>0.21469285084662748</v>
+        <v>0.18408105363456065</v>
       </c>
       <c r="T4" s="0">
-        <v>0.21579149199263753</v>
+        <v>0.18506003511568714</v>
       </c>
       <c r="U4" s="0">
-        <v>0.21676447658215947</v>
+        <v>0.18592595805554829</v>
       </c>
       <c r="V4" s="0">
-        <v>0.21763207170617935</v>
+        <v>0.1867005190724364</v>
       </c>
       <c r="W4" s="0">
-        <v>0.21841130821375496</v>
+        <v>0.18740109008814182</v>
       </c>
       <c r="X4" s="0">
-        <v>0.2191162474234275</v>
+        <v>0.18804172553211357</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.21975815290051101</v>
+        <v>0.18863329750997668</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.22034749342276963</v>
+        <v>0.18918453411561478</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.22089177934283194</v>
+        <v>0.18970221147824962</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.22139764772751272</v>
+        <v>0.1901915605945996</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.22187053693135517</v>
+        <v>0.19065659295041826</v>
       </c>
       <c r="AD4" s="0">
-        <v>0.22231485280132818</v>
+        <v>0.19110033387746711</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.22273422195434578</v>
+        <v>0.19152504644850113</v>
       </c>
       <c r="AF4" s="0">
-        <v>0.22313150471093213</v>
+        <v>0.19193238079103533</v>
       </c>
       <c r="AG4" s="0">
-        <v>0.22350917553481589</v>
+        <v>0.19232390541588359</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.22386900524307274</v>
+        <v>0.19269967543825903</v>
       </c>
       <c r="AI4" s="0">
-        <v>0.2242127604557517</v>
+        <v>0.19306058541955876</v>
       </c>
       <c r="AJ4" s="0">
-        <v>0.22454096288722544</v>
+        <v>0.19340701254525786</v>
       </c>
       <c r="AK4" s="0">
-        <v>0.22485474073646755</v>
+        <v>0.19373913366269691</v>
       </c>
       <c r="AL4" s="0">
-        <v>0.22515470210948579</v>
+        <v>0.19405702919020898</v>
       </c>
       <c r="AM4" s="0">
-        <v>0.22544130898189282</v>
+        <v>0.19436068375201648</v>
       </c>
       <c r="AN4" s="0">
-        <v>0.22571486794609086</v>
+        <v>0.19465003160550437</v>
       </c>
       <c r="AO4" s="0">
-        <v>0.22597555285483717</v>
+        <v>0.19492498826988511</v>
       </c>
       <c r="AP4" s="0">
-        <v>0.22622331612210175</v>
+        <v>0.19518541297131653</v>
       </c>
       <c r="AQ4" s="0">
-        <v>0.2264581752075262</v>
+        <v>0.19543119178192014</v>
       </c>
       <c r="AR4" s="0">
-        <v>0.226680027582744</v>
+        <v>0.1956621083126254</v>
       </c>
       <c r="AS4" s="0">
-        <v>0.22688900364341325</v>
+        <v>0.19587809588742727</v>
       </c>
       <c r="AT4" s="0">
-        <v>0.22708417099680547</v>
+        <v>0.19607900598967998</v>
       </c>
       <c r="AU4" s="0">
-        <v>0.22726550620219349</v>
+        <v>0.19626470068227581</v>
       </c>
       <c r="AV4" s="0">
-        <v>0.22743348692592547</v>
+        <v>0.19643542661852958</v>
       </c>
       <c r="AW4" s="0">
-        <v>0.22758745194467583</v>
+        <v>0.19659066543034437</v>
       </c>
       <c r="AX4" s="0">
-        <v>0.22772710738556498</v>
+        <v>0.19673010098649316</v>
       </c>
       <c r="AY4" s="0">
-        <v>0.22785228257600065</v>
+        <v>0.19685375311474435</v>
       </c>
       <c r="AZ4" s="0">
-        <v>0.22796270743090555</v>
+        <v>0.19696142238970668</v>
       </c>
       <c r="BA4" s="0">
-        <v>0.22805805513334554</v>
+        <v>0.19705270084741816</v>
       </c>
       <c r="BB4" s="0">
-        <v>0.22813828036750261</v>
+        <v>0.19712771857203823</v>
       </c>
       <c r="BC4" s="0">
-        <v>0.22820322220348191</v>
+        <v>0.19718627157855945</v>
       </c>
       <c r="BD4" s="0">
-        <v>0.22825234168587552</v>
+        <v>0.19722816538608606</v>
       </c>
       <c r="BE4" s="0">
-        <v>0.22828571053112828</v>
+        <v>0.19725339482813833</v>
       </c>
       <c r="BF4" s="0">
-        <v>0.2283031192229778</v>
+        <v>0.1972615355673929</v>
       </c>
       <c r="BG4" s="0">
-        <v>0.22830444108744002</v>
+        <v>0.19725233872822603</v>
       </c>
       <c r="BH4" s="0">
-        <v>0.22828959100722321</v>
+        <v>0.19722555268267306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.090960104368157726</v>
+        <v>-0.066230576749790021</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.11074987153892742</v>
+        <v>-0.083742740754080391</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.12819544853565379</v>
+        <v>-0.099297630863447645</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.14275919867530387</v>
+        <v>-0.11289540318773045</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.15490922885378286</v>
+        <v>-0.12463128419033208</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.16504827943870923</v>
+        <v>-0.13466281253292736</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.17351833568226036</v>
+        <v>-0.14317125645640755</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.18060644190712793</v>
+        <v>-0.1503471644787461</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.18655296313173997</v>
+        <v>-0.15637535374769249</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.19155288822746025</v>
+        <v>-0.16142557531920221</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.19576974910222342</v>
+        <v>-0.1656500769145039</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.19933643090243122</v>
+        <v>-0.16918275419246342</v>
       </c>
       <c r="M5" s="0">
-        <v>-0.20236483367604596</v>
+        <v>-0.17213963419498152</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.20494612551169006</v>
+        <v>-0.17461974362332436</v>
       </c>
       <c r="O5" s="0">
-        <v>-0.20715557459134895</v>
+        <v>-0.17670750070555674</v>
       </c>
       <c r="P5" s="0">
-        <v>-0.20905551935029687</v>
+        <v>-0.17847342405035321</v>
       </c>
       <c r="Q5" s="0">
-        <v>-0.21069819406493573</v>
+        <v>-0.17997637239554215</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.21212537276935561</v>
+        <v>-0.18126535881238015</v>
       </c>
       <c r="S5" s="0">
-        <v>-0.21337251099857366</v>
+        <v>-0.18238080786792552</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.21446859672579532</v>
+        <v>-0.18335563610698194</v>
       </c>
       <c r="U5" s="0">
-        <v>-0.21543957894828106</v>
+        <v>-0.18421660781349644</v>
       </c>
       <c r="V5" s="0">
-        <v>-0.21630542217372156</v>
+        <v>-0.18498534835974031</v>
       </c>
       <c r="W5" s="0">
-        <v>-0.21708281979170924</v>
+        <v>-0.18567954204005677</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.21778580693381275</v>
+        <v>-0.18631339080987949</v>
       </c>
       <c r="Y5" s="0">
-        <v>-0.21842602586153234</v>
+        <v>-0.18689730221351192</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.2190131034623248</v>
+        <v>-0.18744030235301107</v>
       </c>
       <c r="AA5" s="0">
-        <v>-0.21955516457276936</v>
+        <v>-0.18794926699863829</v>
       </c>
       <c r="AB5" s="0">
-        <v>-0.22005878216226496</v>
+        <v>-0.1884294996897394</v>
       </c>
       <c r="AC5" s="0">
-        <v>-0.22052920821139621</v>
+        <v>-0.18888506548359671</v>
       </c>
       <c r="AD5" s="0">
-        <v>-0.22097110990693533</v>
+        <v>-0.18931905759384915</v>
       </c>
       <c r="AE5" s="0">
-        <v>-0.22138823243338371</v>
+        <v>-0.18973379456175357</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.22178321604999721</v>
+        <v>-0.1901309852036436</v>
       </c>
       <c r="AG5" s="0">
-        <v>-0.22215840805531015</v>
+        <v>-0.19051148414567878</v>
       </c>
       <c r="AH5" s="0">
-        <v>-0.22251542708359354</v>
+        <v>-0.19087693256153432</v>
       </c>
       <c r="AI5" s="0">
-        <v>-0.22285603998106004</v>
+        <v>-0.19122756079732661</v>
       </c>
       <c r="AJ5" s="0">
-        <v>-0.2231814573697013</v>
+        <v>-0.19156371250140658</v>
       </c>
       <c r="AK5" s="0">
-        <v>-0.22349251352119151</v>
+        <v>-0.19188562823609226</v>
       </c>
       <c r="AL5" s="0">
-        <v>-0.22378935125097268</v>
+        <v>-0.19219343509103695</v>
       </c>
       <c r="AM5" s="0">
-        <v>-0.22407324042480334</v>
+        <v>-0.19248714307316761</v>
       </c>
       <c r="AN5" s="0">
-        <v>-0.22434410548931527</v>
+        <v>-0.19276673362589397</v>
       </c>
       <c r="AO5" s="0">
-        <v>-0.22460226794710036</v>
+        <v>-0.19303228929509875</v>
       </c>
       <c r="AP5" s="0">
-        <v>-0.2248471946175272</v>
+        <v>-0.19328356239545103</v>
       </c>
       <c r="AQ5" s="0">
-        <v>-0.2250790314634292</v>
+        <v>-0.19352032059941696</v>
       </c>
       <c r="AR5" s="0">
-        <v>-0.22529855458258966</v>
+        <v>-0.19374257441436155</v>
       </c>
       <c r="AS5" s="0">
-        <v>-0.22550514436144767</v>
+        <v>-0.19395022514230251</v>
       </c>
       <c r="AT5" s="0">
-        <v>-0.22569798125756227</v>
+        <v>-0.19414314805795571</v>
       </c>
       <c r="AU5" s="0">
-        <v>-0.22587706703528168</v>
+        <v>-0.19432116577310729</v>
       </c>
       <c r="AV5" s="0">
-        <v>-0.22604291975101665</v>
+        <v>-0.19448467057773761</v>
       </c>
       <c r="AW5" s="0">
-        <v>-0.22619486463132005</v>
+        <v>-0.1946329975416215</v>
       </c>
       <c r="AX5" s="0">
-        <v>-0.22633260500239802</v>
+        <v>-0.19476605385414725</v>
       </c>
       <c r="AY5" s="0">
-        <v>-0.22645594246384373</v>
+        <v>-0.19488377870274104</v>
       </c>
       <c r="AZ5" s="0">
-        <v>-0.22656455787685237</v>
+        <v>-0.1949859906934924</v>
       </c>
       <c r="BA5" s="0">
-        <v>-0.22665836569688941</v>
+        <v>-0.19507257063313077</v>
       </c>
       <c r="BB5" s="0">
-        <v>-0.22673708917616298</v>
+        <v>-0.19514310590334794</v>
       </c>
       <c r="BC5" s="0">
-        <v>-0.22680045282205907</v>
+        <v>-0.19519769214196273</v>
       </c>
       <c r="BD5" s="0">
-        <v>-0.22684864281847072</v>
+        <v>-0.19523615288653928</v>
       </c>
       <c r="BE5" s="0">
-        <v>-0.22688098231144299</v>
+        <v>-0.1952583283732518</v>
       </c>
       <c r="BF5" s="0">
-        <v>-0.22689750136855702</v>
+        <v>-0.19526395671048941</v>
       </c>
       <c r="BG5" s="0">
-        <v>-0.22689808167969783</v>
+        <v>-0.19525299585380015</v>
       </c>
       <c r="BH5" s="0">
-        <v>-0.22688238693086593</v>
+        <v>-0.19522500629713438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.68925319386014983</v>
+        <v>0.66806757989949661</v>
       </c>
       <c r="B6" s="0">
-        <v>0.67198249784917119</v>
+        <v>0.65617184257696803</v>
       </c>
       <c r="C6" s="0">
-        <v>0.65577340364539183</v>
+        <v>0.64403500528502711</v>
       </c>
       <c r="D6" s="0">
-        <v>0.64069390358686429</v>
+        <v>0.63176930619577409</v>
       </c>
       <c r="E6" s="0">
-        <v>0.62663779334528502</v>
+        <v>0.61960821401679134</v>
       </c>
       <c r="F6" s="0">
-        <v>0.6135699571348836</v>
+        <v>0.60774884808304397</v>
       </c>
       <c r="G6" s="0">
-        <v>0.6014546908873234</v>
+        <v>0.59634780402965304</v>
       </c>
       <c r="H6" s="0">
-        <v>0.59024636593690627</v>
+        <v>0.58550388449139334</v>
       </c>
       <c r="I6" s="0">
-        <v>0.57989260140823184</v>
+        <v>0.5752876022240202</v>
       </c>
       <c r="J6" s="0">
-        <v>0.57033768932171292</v>
+        <v>0.5657384386604275</v>
       </c>
       <c r="K6" s="0">
-        <v>0.56152541712200188</v>
+        <v>0.55687381353672361</v>
       </c>
       <c r="L6" s="0">
-        <v>0.55340272463610463</v>
+        <v>0.54869451481659448</v>
       </c>
       <c r="M6" s="0">
-        <v>0.54591328271430439</v>
+        <v>0.54118880313902762</v>
       </c>
       <c r="N6" s="0">
-        <v>0.53901164898255982</v>
+        <v>0.5343358729572274</v>
       </c>
       <c r="O6" s="0">
-        <v>0.53265065956861046</v>
+        <v>0.52810806787525455</v>
       </c>
       <c r="P6" s="0">
-        <v>0.52678758715900542</v>
+        <v>0.52247314836734504</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.52138354416662591</v>
+        <v>0.51739597572529461</v>
       </c>
       <c r="R6" s="0">
-        <v>0.51640104184849511</v>
+        <v>0.51283968668635893</v>
       </c>
       <c r="S6" s="0">
-        <v>0.51180645849599449</v>
+        <v>0.50876716470507155</v>
       </c>
       <c r="T6" s="0">
-        <v>0.50756987189032776</v>
+        <v>0.50514068343332552</v>
       </c>
       <c r="U6" s="0">
-        <v>0.50366119268291742</v>
+        <v>0.50192333917063148</v>
       </c>
       <c r="V6" s="0">
-        <v>0.50005443872700983</v>
+        <v>0.49907948997893564</v>
       </c>
       <c r="W6" s="0">
-        <v>0.49672557136702333</v>
+        <v>0.49657454798545297</v>
       </c>
       <c r="X6" s="0">
-        <v>0.49365213234610106</v>
+        <v>0.4943759750571286</v>
       </c>
       <c r="Y6" s="0">
-        <v>0.49081343869761407</v>
+        <v>0.4924534273515242</v>
       </c>
       <c r="Z6" s="0">
-        <v>0.48819036214124806</v>
+        <v>0.4907776745871047</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.48576535742461435</v>
+        <v>0.48932180052810148</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.48352186934817698</v>
+        <v>0.48806079409658187</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.48144537826665668</v>
+        <v>0.48697153498363155</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.47952111349568616</v>
+        <v>0.48603274001542873</v>
       </c>
       <c r="AE6" s="0">
-        <v>0.47773711326723006</v>
+        <v>0.48522487111505708</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.47608109260970521</v>
+        <v>0.48453005066237864</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.47454234186914768</v>
+        <v>0.48393234252455641</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.47311039329369209</v>
+        <v>0.48341611215688085</v>
       </c>
       <c r="AI6" s="0">
-        <v>0.47177589469610509</v>
+        <v>0.48296821123730022</v>
       </c>
       <c r="AJ6" s="0">
-        <v>0.47052917948363993</v>
+        <v>0.482576386791082</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.46936350044166092</v>
+        <v>0.48222953929578571</v>
       </c>
       <c r="AL6" s="0">
-        <v>0.46827127944044261</v>
+        <v>0.48191740869133576</v>
       </c>
       <c r="AM6" s="0">
-        <v>0.46724528071963234</v>
+        <v>0.48163125805605594</v>
       </c>
       <c r="AN6" s="0">
-        <v>0.46627927715085798</v>
+        <v>0.48136264427621367</v>
       </c>
       <c r="AO6" s="0">
-        <v>0.46536735526346729</v>
+        <v>0.48110393303956983</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.46450406998406241</v>
+        <v>0.48084860142798297</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0.46368439583937038</v>
+        <v>0.48059073843233197</v>
       </c>
       <c r="AR6" s="0">
-        <v>0.46290371482758558</v>
+        <v>0.48032457465533113</v>
       </c>
       <c r="AS6" s="0">
-        <v>0.46215762610028083</v>
+        <v>0.48004518736297525</v>
       </c>
       <c r="AT6" s="0">
-        <v>0.4614422747299754</v>
+        <v>0.4797480463696554</v>
       </c>
       <c r="AU6" s="0">
-        <v>0.46075412854739611</v>
+        <v>0.47942904196756853</v>
       </c>
       <c r="AV6" s="0">
-        <v>0.46008925974060394</v>
+        <v>0.4790842919896402</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.4594451271102632</v>
+        <v>0.47871094706671652</v>
       </c>
       <c r="AX6" s="0">
-        <v>0.45881858405191245</v>
+        <v>0.47830540203094141</v>
       </c>
       <c r="AY6" s="0">
-        <v>0.45820705751995655</v>
+        <v>0.47786487221570989</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0.45760803564930125</v>
+        <v>0.47738665745520298</v>
       </c>
       <c r="BA6" s="0">
-        <v>0.45701933050331223</v>
+        <v>0.47686837050200248</v>
       </c>
       <c r="BB6" s="0">
-        <v>0.45643886144543805</v>
+        <v>0.47630743499229306</v>
       </c>
       <c r="BC6" s="0">
-        <v>0.4558647739091008</v>
+        <v>0.47570198452185103</v>
       </c>
       <c r="BD6" s="0">
-        <v>0.45529517678958575</v>
+        <v>0.47505018830485984</v>
       </c>
       <c r="BE6" s="0">
-        <v>0.45472850843811979</v>
+        <v>0.4743500533799484</v>
       </c>
       <c r="BF6" s="0">
-        <v>0.45416330250954356</v>
+        <v>0.47359974918377767</v>
       </c>
       <c r="BG6" s="0">
-        <v>0.45359823854415121</v>
+        <v>0.47279757661005689</v>
       </c>
       <c r="BH6" s="0">
-        <v>0.45303203711449747</v>
+        <v>0.47194187131955273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.68541291913832703</v>
+        <v>-0.66474307590604265</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.66860292512967401</v>
+        <v>-0.65278792239356231</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.65232583218831608</v>
+        <v>-0.64060057958340255</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.6371847198370606</v>
+        <v>-0.62829253079683745</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.62307621104697153</v>
+        <v>-0.61609554212250628</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.60996421867396444</v>
+        <v>-0.60420755613340327</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.59781121492694034</v>
+        <v>-0.59277871989754283</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.58656937447623081</v>
+        <v>-0.58191226910087634</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.57618510905385922</v>
+        <v>-0.57167618824280331</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.56660526872257266</v>
+        <v>-0.56210930162137318</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.55777123200862</v>
+        <v>-0.55322845967116563</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.54962794179089236</v>
+        <v>-0.54503396717324448</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.54212139408133764</v>
+        <v>-0.53751372623720217</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.53520424685257273</v>
+        <v>-0.53064627189635005</v>
       </c>
       <c r="O7" s="0">
-        <v>-0.52882963748963907</v>
+        <v>-0.524404253165624</v>
       </c>
       <c r="P7" s="0">
-        <v>-0.52295414035822596</v>
+        <v>-0.51875509650979879</v>
       </c>
       <c r="Q7" s="0">
-        <v>-0.51753871010956365</v>
+        <v>-0.51366341826525841</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.51254568782065146</v>
+        <v>-0.50909223438464557</v>
       </c>
       <c r="S7" s="0">
-        <v>-0.50794125953396696</v>
+        <v>-0.50500434200148969</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.50369547936261316</v>
+        <v>-0.5013620740688447</v>
       </c>
       <c r="U7" s="0">
-        <v>-0.49977803487967026</v>
+        <v>-0.49812846805928007</v>
       </c>
       <c r="V7" s="0">
-        <v>-0.49616299519839813</v>
+        <v>-0.49526790744432325</v>
       </c>
       <c r="W7" s="0">
-        <v>-0.49282612336577186</v>
+        <v>-0.49274577273301134</v>
       </c>
       <c r="X7" s="0">
-        <v>-0.48974451963632715</v>
+        <v>-0.49052955631134348</v>
       </c>
       <c r="Y7" s="0">
-        <v>-0.48689803633006545</v>
+        <v>-0.48858906114586853</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.48426775491014934</v>
+        <v>-0.48689505820341983</v>
       </c>
       <c r="AA7" s="0">
-        <v>-0.48183564834391274</v>
+        <v>-0.4854206884930084</v>
       </c>
       <c r="AB7" s="0">
-        <v>-0.47958518017973251</v>
+        <v>-0.48414100208448763</v>
       </c>
       <c r="AC7" s="0">
-        <v>-0.47750175600393713</v>
+        <v>-0.48303294338624975</v>
       </c>
       <c r="AD7" s="0">
-        <v>-0.47557158161657287</v>
+        <v>-0.48207528941134431</v>
       </c>
       <c r="AE7" s="0">
-        <v>-0.47378056202458729</v>
+        <v>-0.48124856547271883</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.47211795204558527</v>
+        <v>-0.48053534503977469</v>
       </c>
       <c r="AG7" s="0">
-        <v>-0.47057277638527778</v>
+        <v>-0.47991897094311786</v>
       </c>
       <c r="AH7" s="0">
-        <v>-0.46913446314436896</v>
+        <v>-0.47938460507400721</v>
       </c>
       <c r="AI7" s="0">
-        <v>-0.46779372919345102</v>
+        <v>-0.47891878899529278</v>
       </c>
       <c r="AJ7" s="0">
-        <v>-0.46654101300353296</v>
+        <v>-0.47850894466592531</v>
       </c>
       <c r="AK7" s="0">
-        <v>-0.46536913481990699</v>
+        <v>-0.4781443858155387</v>
       </c>
       <c r="AL7" s="0">
-        <v>-0.46427052571859406</v>
+        <v>-0.47781510599332516</v>
       </c>
       <c r="AM7" s="0">
-        <v>-0.46323868774526111</v>
+        <v>-0.47751201716220881</v>
       </c>
       <c r="AN7" s="0">
-        <v>-0.46226701921662</v>
+        <v>-0.47722693197271615</v>
       </c>
       <c r="AO7" s="0">
-        <v>-0.46134956774133201</v>
+        <v>-0.4769522335136781</v>
       </c>
       <c r="AP7" s="0">
-        <v>-0.46048088655329977</v>
+        <v>-0.47668144586255717</v>
       </c>
       <c r="AQ7" s="0">
-        <v>-0.45965596218775712</v>
+        <v>-0.47640869097685423</v>
       </c>
       <c r="AR7" s="0">
-        <v>-0.45887032024064051</v>
+        <v>-0.47612821827212065</v>
       </c>
       <c r="AS7" s="0">
-        <v>-0.45811917902458488</v>
+        <v>-0.47583513434099534</v>
       </c>
       <c r="AT7" s="0">
-        <v>-0.45739918498522375</v>
+        <v>-0.47552494329210104</v>
       </c>
       <c r="AU7" s="0">
-        <v>-0.45670626256835528</v>
+        <v>-0.47519354985045054</v>
       </c>
       <c r="AV7" s="0">
-        <v>-0.45603717830611301</v>
+        <v>-0.47483710194944817</v>
       </c>
       <c r="AW7" s="0">
-        <v>-0.45538872153622628</v>
+        <v>-0.47445274141178423</v>
       </c>
       <c r="AX7" s="0">
-        <v>-0.45475810900538916</v>
+        <v>-0.47403696432307574</v>
       </c>
       <c r="AY7" s="0">
-        <v>-0.45414267763854865</v>
+        <v>-0.47358689248487945</v>
       </c>
       <c r="AZ7" s="0">
-        <v>-0.45353976468960039</v>
+        <v>-0.47309995117430781</v>
       </c>
       <c r="BA7" s="0">
-        <v>-0.45294753051763198</v>
+        <v>-0.47257368755158891</v>
       </c>
       <c r="BB7" s="0">
-        <v>-0.45236376558016972</v>
+        <v>-0.47200569491046118</v>
       </c>
       <c r="BC7" s="0">
-        <v>-0.45178646863620398</v>
+        <v>-0.47139385469976147</v>
       </c>
       <c r="BD7" s="0">
-        <v>-0.45121410458732297</v>
+        <v>-0.47073649821120533</v>
       </c>
       <c r="BE7" s="0">
-        <v>-0.45064452218559742</v>
+        <v>-0.47003164241116308</v>
       </c>
       <c r="BF7" s="0">
-        <v>-0.45007680575242759</v>
+        <v>-0.46927747224791028</v>
       </c>
       <c r="BG7" s="0">
-        <v>-0.44950941045412218</v>
+        <v>-0.46847228561283649</v>
       </c>
       <c r="BH7" s="0">
-        <v>-0.44894110267942544</v>
+        <v>-0.46761444261501395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.020287658622409988</v>
+        <v>-0.023905401796046995</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0681179928161431</v>
+        <v>-0.0594281986566918</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.1089419683945996</v>
+        <v>-0.092488690496064632</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.14455187066158531</v>
+        <v>-0.12336912522201829</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.1759613651126225</v>
+        <v>-0.1520645319907461</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.20382012183155032</v>
+        <v>-0.17856643869006533</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.22862716439568123</v>
+        <v>-0.20291381315023449</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.25078886979529968</v>
+        <v>-0.22517740527720534</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.27064465456461378</v>
+        <v>-0.24545583827792902</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.28848179532002854</v>
+        <v>-0.26386329622712834</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.30454717676969217</v>
+        <v>-0.28052187033525655</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.31904900806755959</v>
+        <v>-0.29555599916262487</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.33216827652576736</v>
+        <v>-0.30908902561402146</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.34405791839386585</v>
+        <v>-0.32124073212307319</v>
       </c>
       <c r="O8" s="0">
-        <v>-0.35485288203059834</v>
+        <v>-0.33212622770604433</v>
       </c>
       <c r="P8" s="0">
-        <v>-0.36467048138613206</v>
+        <v>-0.34185488109551027</v>
       </c>
       <c r="Q8" s="0">
-        <v>-0.37361216922388651</v>
+        <v>-0.35052975629702071</v>
       </c>
       <c r="R8" s="0">
-        <v>-0.38176854603720145</v>
+        <v>-0.35824749752101354</v>
       </c>
       <c r="S8" s="0">
-        <v>-0.38921845263954563</v>
+        <v>-0.36509781087127319</v>
       </c>
       <c r="T8" s="0">
-        <v>-0.39603039203575846</v>
+        <v>-0.37116471266040535</v>
       </c>
       <c r="U8" s="0">
-        <v>-0.40226836688444867</v>
+        <v>-0.3765258382502637</v>
       </c>
       <c r="V8" s="0">
-        <v>-0.40798652524676893</v>
+        <v>-0.38125269671422396</v>
       </c>
       <c r="W8" s="0">
-        <v>-0.41323273115600762</v>
+        <v>-0.38541154541172357</v>
       </c>
       <c r="X8" s="0">
-        <v>-0.41805188918080199</v>
+        <v>-0.38906278516322906</v>
       </c>
       <c r="Y8" s="0">
-        <v>-0.42248340611940111</v>
+        <v>-0.39226133992609891</v>
       </c>
       <c r="Z8" s="0">
-        <v>-0.42656289016622134</v>
+        <v>-0.39505816124868448</v>
       </c>
       <c r="AA8" s="0">
-        <v>-0.43032230297853946</v>
+        <v>-0.39749936072820291</v>
       </c>
       <c r="AB8" s="0">
-        <v>-0.43379086549844881</v>
+        <v>-0.39962692589930243</v>
       </c>
       <c r="AC8" s="0">
-        <v>-0.43699456276821563</v>
+        <v>-0.40147900376309137</v>
       </c>
       <c r="AD8" s="0">
-        <v>-0.43995751180094311</v>
+        <v>-0.40309019017831266</v>
       </c>
       <c r="AE8" s="0">
-        <v>-0.44270104036598357</v>
+        <v>-0.40449141280623491</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.44524441736313053</v>
+        <v>-0.4057114723396934</v>
       </c>
       <c r="AG8" s="0">
-        <v>-0.44760627578320006</v>
+        <v>-0.40677599581637597</v>
       </c>
       <c r="AH8" s="0">
-        <v>-0.449802515449514</v>
+        <v>-0.40770813035332887</v>
       </c>
       <c r="AI8" s="0">
-        <v>-0.45184822260369067</v>
+        <v>-0.40852875531531596</v>
       </c>
       <c r="AJ8" s="0">
-        <v>-0.45375797698867798</v>
+        <v>-0.40925719025501045</v>
       </c>
       <c r="AK8" s="0">
-        <v>-0.45554293069727075</v>
+        <v>-0.40990995551661935</v>
       </c>
       <c r="AL8" s="0">
-        <v>-0.45721492329041707</v>
+        <v>-0.41050230396038612</v>
       </c>
       <c r="AM8" s="0">
-        <v>-0.45878456757953501</v>
+        <v>-0.41104787512364516</v>
       </c>
       <c r="AN8" s="0">
-        <v>-0.46026142081011867</v>
+        <v>-0.41155940056657137</v>
       </c>
       <c r="AO8" s="0">
-        <v>-0.46165418559819649</v>
+        <v>-0.41204776957788825</v>
       </c>
       <c r="AP8" s="0">
-        <v>-0.4629709853534606</v>
+        <v>-0.41252347407609979</v>
       </c>
       <c r="AQ8" s="0">
-        <v>-0.46421927852984968</v>
+        <v>-0.41299537650427787</v>
       </c>
       <c r="AR8" s="0">
-        <v>-0.46540577729800164</v>
+        <v>-0.41347167097449167</v>
       </c>
       <c r="AS8" s="0">
-        <v>-0.4665366103238584</v>
+        <v>-0.4139598985222554</v>
       </c>
       <c r="AT8" s="0">
-        <v>-0.46761777224918755</v>
+        <v>-0.41446681356434684</v>
       </c>
       <c r="AU8" s="0">
-        <v>-0.46865468260467474</v>
+        <v>-0.41499852887060124</v>
       </c>
       <c r="AV8" s="0">
-        <v>-0.46965153985864666</v>
+        <v>-0.4155607513650717</v>
       </c>
       <c r="AW8" s="0">
-        <v>-0.47061335988067327</v>
+        <v>-0.41615833852148948</v>
       </c>
       <c r="AX8" s="0">
-        <v>-0.47154422946423724</v>
+        <v>-0.41679564088426946</v>
       </c>
       <c r="AY8" s="0">
-        <v>-0.47244767523879194</v>
+        <v>-0.41747722064415504</v>
       </c>
       <c r="AZ8" s="0">
-        <v>-0.47332718089312853</v>
+        <v>-0.41820700291339058</v>
       </c>
       <c r="BA8" s="0">
-        <v>-0.47418591014524047</v>
+        <v>-0.41898855491613413</v>
       </c>
       <c r="BB8" s="0">
-        <v>-0.47502681139181435</v>
+        <v>-0.41982520196628093</v>
       </c>
       <c r="BC8" s="0">
-        <v>-0.47585257640029194</v>
+        <v>-0.42072019452362008</v>
       </c>
       <c r="BD8" s="0">
-        <v>-0.47666561955053421</v>
+        <v>-0.42167621888740764</v>
       </c>
       <c r="BE8" s="0">
-        <v>-0.47746815875898097</v>
+        <v>-0.42269594018339796</v>
       </c>
       <c r="BF8" s="0">
-        <v>-0.47826247545295925</v>
+        <v>-0.42378196034026477</v>
       </c>
       <c r="BG8" s="0">
-        <v>-0.4790501659733194</v>
+        <v>-0.42493667260817813</v>
       </c>
       <c r="BH8" s="0">
-        <v>-0.47983316993643949</v>
+        <v>-0.42616238316711869</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>9.6949609242759313e-15</v>
+        <v>-1.7268049415874733e-12</v>
       </c>
       <c r="B9" s="0">
-        <v>-1.126168845674343e-07</v>
+        <v>-1.788206598251287e-12</v>
       </c>
       <c r="C9" s="0">
-        <v>-6.9236751363952166e-07</v>
+        <v>-2.6813119060362581e-10</v>
       </c>
       <c r="D9" s="0">
-        <v>-6.4079120121046262e-07</v>
+        <v>-2.5123488779610468e-10</v>
       </c>
       <c r="E9" s="0">
-        <v>-5.7618890670490514e-07</v>
+        <v>3.3231086431498696e-10</v>
       </c>
       <c r="F9" s="0">
-        <v>-5.8773853509073356e-07</v>
+        <v>-1.9168537768551639e-06</v>
       </c>
       <c r="G9" s="0">
-        <v>1.6118584232479727e-08</v>
+        <v>-3.4003506514730504e-06</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.2996179047181759e-07</v>
+        <v>-3.1614681127648154e-06</v>
       </c>
       <c r="I9" s="0">
-        <v>9.5372897422279647e-08</v>
+        <v>-2.939066224794637e-06</v>
       </c>
       <c r="J9" s="0">
-        <v>1.4717661207124608e-06</v>
+        <v>-2.7274212014528709e-06</v>
       </c>
       <c r="K9" s="0">
-        <v>1.4575850455194255e-06</v>
+        <v>-2.5323469519214944e-06</v>
       </c>
       <c r="L9" s="0">
-        <v>1.343263744964493e-06</v>
+        <v>-2.3489997021881381e-06</v>
       </c>
       <c r="M9" s="0">
-        <v>1.2507649609058279e-06</v>
+        <v>-2.1740316624436781e-06</v>
       </c>
       <c r="N9" s="0">
-        <v>1.1785293031387407e-06</v>
+        <v>-2.0128536556632187e-06</v>
       </c>
       <c r="O9" s="0">
-        <v>1.1183324271609411e-06</v>
+        <v>-1.8657402464061587e-06</v>
       </c>
       <c r="P9" s="0">
-        <v>1.0650131874936775e-06</v>
+        <v>-1.7211934800813556e-06</v>
       </c>
       <c r="Q9" s="0">
-        <v>1.0132489619067925e-06</v>
+        <v>-1.5990830380910378e-06</v>
       </c>
       <c r="R9" s="0">
-        <v>9.4252381806601677e-07</v>
+        <v>-1.4824114993835959e-06</v>
       </c>
       <c r="S9" s="0">
-        <v>8.8406646806962362e-07</v>
+        <v>-1.3749754221071424e-06</v>
       </c>
       <c r="T9" s="0">
-        <v>8.0385622930772271e-07</v>
+        <v>-1.2788859297615974e-06</v>
       </c>
       <c r="U9" s="0">
-        <v>8.3341975820430819e-07</v>
+        <v>-1.187407814897571e-06</v>
       </c>
       <c r="V9" s="0">
-        <v>7.4646621776679492e-07</v>
+        <v>-1.1050600396428466e-06</v>
       </c>
       <c r="W9" s="0">
-        <v>6.9874571703876235e-07</v>
+        <v>-1.0273564127184205e-06</v>
       </c>
       <c r="X9" s="0">
-        <v>6.5812697330710387e-07</v>
+        <v>-9.5578819649572029e-07</v>
       </c>
       <c r="Y9" s="0">
-        <v>6.2071609842526972e-07</v>
+        <v>-8.8988325623506644e-07</v>
       </c>
       <c r="Z9" s="0">
-        <v>5.9074364846805935e-07</v>
+        <v>-8.2941036013138333e-07</v>
       </c>
       <c r="AA9" s="0">
-        <v>5.484390669815394e-07</v>
+        <v>-7.7351475757408721e-07</v>
       </c>
       <c r="AB9" s="0">
-        <v>5.3168376695337561e-07</v>
+        <v>-7.220615788177254e-07</v>
       </c>
       <c r="AC9" s="0">
-        <v>5.0417884534588273e-07</v>
+        <v>-6.746911365454635e-07</v>
       </c>
       <c r="AD9" s="0">
-        <v>7.558586474534276e-07</v>
+        <v>-6.3115407503748761e-07</v>
       </c>
       <c r="AE9" s="0">
-        <v>3.893025359826244e-07</v>
+        <v>-5.9109718422056324e-07</v>
       </c>
       <c r="AF9" s="0">
-        <v>4.1288101281337429e-07</v>
+        <v>-5.5408062020673885e-07</v>
       </c>
       <c r="AG9" s="0">
-        <v>4.1936087195898201e-07</v>
+        <v>-5.197357542815714e-07</v>
       </c>
       <c r="AH9" s="0">
-        <v>7.4595946107671667e-07</v>
+        <v>-4.8831107074117148e-07</v>
       </c>
       <c r="AI9" s="0">
-        <v>7.0851370212697237e-07</v>
+        <v>-4.6703435062317265e-07</v>
       </c>
       <c r="AJ9" s="0">
-        <v>6.8664222587279459e-07</v>
+        <v>-4.401567477201374e-07</v>
       </c>
       <c r="AK9" s="0">
-        <v>6.5335329152416457e-07</v>
+        <v>-4.2223878614629068e-07</v>
       </c>
       <c r="AL9" s="0">
-        <v>6.2774222672434076e-07</v>
+        <v>-4.0722653278990761e-07</v>
       </c>
       <c r="AM9" s="0">
-        <v>6.022872548961838e-07</v>
+        <v>-3.860911639713007e-07</v>
       </c>
       <c r="AN9" s="0">
-        <v>5.771807027848901e-07</v>
+        <v>-3.7433013105568817e-07</v>
       </c>
       <c r="AO9" s="0">
-        <v>5.5420004019181989e-07</v>
+        <v>-3.4978823503136077e-07</v>
       </c>
       <c r="AP9" s="0">
-        <v>5.589610803731894e-07</v>
+        <v>-3.4620410096728083e-07</v>
       </c>
       <c r="AQ9" s="0">
-        <v>5.1593902464662083e-07</v>
+        <v>-3.313616466366097e-07</v>
       </c>
       <c r="AR9" s="0">
-        <v>4.685493827811822e-07</v>
+        <v>-2.5323985173037867e-07</v>
       </c>
       <c r="AS9" s="0">
-        <v>4.3508404101496712e-07</v>
+        <v>-2.3917156232553048e-07</v>
       </c>
       <c r="AT9" s="0">
-        <v>4.4761692317805643e-07</v>
+        <v>-2.2953916864770503e-07</v>
       </c>
       <c r="AU9" s="0">
-        <v>4.0926424565134461e-07</v>
+        <v>-1.606979142115328e-07</v>
       </c>
       <c r="AV9" s="0">
-        <v>4.174050836148927e-07</v>
+        <v>-1.5737067044935784e-07</v>
       </c>
       <c r="AW9" s="0">
-        <v>4.0899104579599259e-07</v>
+        <v>-1.5248018515658308e-07</v>
       </c>
       <c r="AX9" s="0">
-        <v>4.0548178257160595e-07</v>
+        <v>-1.5058375104343015e-07</v>
       </c>
       <c r="AY9" s="0">
-        <v>3.6912835040396581e-07</v>
+        <v>-1.5652679857607414e-07</v>
       </c>
       <c r="AZ9" s="0">
-        <v>4.3253364857026395e-07</v>
+        <v>-1.4961866715882296e-07</v>
       </c>
       <c r="BA9" s="0">
-        <v>2.725263876509474e-07</v>
+        <v>-1.4237082003389191e-07</v>
       </c>
       <c r="BB9" s="0">
-        <v>3.4280596279015278e-07</v>
+        <v>-1.4774344067065034e-07</v>
       </c>
       <c r="BC9" s="0">
-        <v>3.1115641320638688e-07</v>
+        <v>-1.4124609412016061e-07</v>
       </c>
       <c r="BD9" s="0">
-        <v>3.1278499199264921e-07</v>
+        <v>-1.4854797881398706e-07</v>
       </c>
       <c r="BE9" s="0">
-        <v>3.18759054763478e-07</v>
+        <v>-1.2889164643561909e-07</v>
       </c>
       <c r="BF9" s="0">
-        <v>3.2120353790978306e-07</v>
+        <v>-1.2370429325473125e-07</v>
       </c>
       <c r="BG9" s="0">
-        <v>3.0239843632324831e-07</v>
+        <v>-1.2076571925499564e-07</v>
       </c>
       <c r="BH9" s="0">
-        <v>2.9520664530158763e-07</v>
+        <v>-1.2149286703538155e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0</v>
+        <v>-2.1754356371959834e-12</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
+        <v>-1.6706831695801454e-10</v>
       </c>
       <c r="C10" s="0">
-        <v>-3.5383471649462266e-09</v>
+        <v>-1.5604394382404952e-10</v>
       </c>
       <c r="D10" s="0">
-        <v>-2.7357564315061847e-09</v>
+        <v>-1.3652286582895204e-09</v>
       </c>
       <c r="E10" s="0">
-        <v>-4.9663667973298261e-09</v>
+        <v>8.2774919131659727e-08</v>
       </c>
       <c r="F10" s="0">
-        <v>6.2311822882868713e-08</v>
+        <v>8.6190381007120144e-08</v>
       </c>
       <c r="G10" s="0">
-        <v>6.2552516958348427e-07</v>
+        <v>7.9754153399771771e-08</v>
       </c>
       <c r="H10" s="0">
-        <v>3.2838571393127123e-07</v>
+        <v>7.6219810786695153e-08</v>
       </c>
       <c r="I10" s="0">
-        <v>1.0088349176428479e-06</v>
+        <v>7.1044645588207599e-08</v>
       </c>
       <c r="J10" s="0">
-        <v>8.2156534476878941e-07</v>
+        <v>6.6457263472456196e-08</v>
       </c>
       <c r="K10" s="0">
-        <v>2.2207425256506369e-07</v>
+        <v>6.4474405302752285e-08</v>
       </c>
       <c r="L10" s="0">
-        <v>9.8935002759228823e-08</v>
+        <v>6.7499958533879674e-08</v>
       </c>
       <c r="M10" s="0">
-        <v>8.2021359007560096e-08</v>
+        <v>6.3591027090745613e-08</v>
       </c>
       <c r="N10" s="0">
-        <v>7.0643019443481843e-08</v>
+        <v>3.0858916962893646e-08</v>
       </c>
       <c r="O10" s="0">
-        <v>6.041356135219312e-08</v>
+        <v>2.4845806790686093e-08</v>
       </c>
       <c r="P10" s="0">
-        <v>4.3667670825418306e-08</v>
+        <v>2.7218587713770641e-08</v>
       </c>
       <c r="Q10" s="0">
-        <v>3.9811196973358774e-08</v>
+        <v>2.4705786494980591e-08</v>
       </c>
       <c r="R10" s="0">
-        <v>3.4558673101342361e-08</v>
+        <v>2.396082725920081e-08</v>
       </c>
       <c r="S10" s="0">
-        <v>3.6491675135061401e-08</v>
+        <v>2.5226732588212387e-08</v>
       </c>
       <c r="T10" s="0">
-        <v>4.6638208377151846e-08</v>
+        <v>2.4292549073989747e-08</v>
       </c>
       <c r="U10" s="0">
-        <v>3.2182306081013826e-08</v>
+        <v>2.3437114870571245e-08</v>
       </c>
       <c r="V10" s="0">
-        <v>5.6564257523173826e-08</v>
+        <v>2.5769482763227523e-08</v>
       </c>
       <c r="W10" s="0">
-        <v>3.2125243956476426e-08</v>
+        <v>2.6559519958366104e-08</v>
       </c>
       <c r="X10" s="0">
-        <v>3.35588650607097e-08</v>
+        <v>2.5768104319976903e-08</v>
       </c>
       <c r="Y10" s="0">
-        <v>3.6392193028496423e-08</v>
+        <v>2.4916713232835181e-08</v>
       </c>
       <c r="Z10" s="0">
-        <v>3.1983759194092435e-08</v>
+        <v>2.4006105991558014e-08</v>
       </c>
       <c r="AA10" s="0">
-        <v>3.699191493535489e-08</v>
+        <v>2.3399364168180989e-08</v>
       </c>
       <c r="AB10" s="0">
-        <v>1.6800799032552315e-08</v>
+        <v>2.2922669764170195e-08</v>
       </c>
       <c r="AC10" s="0">
-        <v>-8.6512540919231959e-08</v>
+        <v>2.2352577253570184e-08</v>
       </c>
       <c r="AD10" s="0">
-        <v>-4.2973110381069587e-07</v>
+        <v>2.1839081343208192e-08</v>
       </c>
       <c r="AE10" s="0">
-        <v>-4.3457508803397014e-07</v>
+        <v>2.1451596165111477e-08</v>
       </c>
       <c r="AF10" s="0">
-        <v>-3.9410776825895367e-07</v>
+        <v>2.1026737500418458e-08</v>
       </c>
       <c r="AG10" s="0">
-        <v>-3.5437667740654584e-07</v>
+        <v>2.0952513605795038e-08</v>
       </c>
       <c r="AH10" s="0">
-        <v>-3.2763131748004749e-07</v>
+        <v>2.0256400192973122e-08</v>
       </c>
       <c r="AI10" s="0">
-        <v>-3.0874806894242446e-07</v>
+        <v>1.9717048674006714e-08</v>
       </c>
       <c r="AJ10" s="0">
-        <v>-2.8804199712457866e-07</v>
+        <v>2.6233793115334013e-08</v>
       </c>
       <c r="AK10" s="0">
-        <v>-2.7363432433373793e-07</v>
+        <v>3.3772538795125722e-08</v>
       </c>
       <c r="AL10" s="0">
-        <v>-2.7230233804558571e-07</v>
+        <v>3.3268072088795688e-08</v>
       </c>
       <c r="AM10" s="0">
-        <v>-2.5468089238353314e-07</v>
+        <v>3.2793440922257661e-08</v>
       </c>
       <c r="AN10" s="0">
-        <v>-2.4214216581069565e-07</v>
+        <v>2.5426405144164371e-08</v>
       </c>
       <c r="AO10" s="0">
-        <v>-2.2134949353832175e-07</v>
+        <v>2.5091591394173117e-08</v>
       </c>
       <c r="AP10" s="0">
-        <v>-1.851645909408194e-07</v>
+        <v>3.1902729296729995e-08</v>
       </c>
       <c r="AQ10" s="0">
-        <v>-2.0213929473778903e-07</v>
+        <v>3.866797624318014e-08</v>
       </c>
       <c r="AR10" s="0">
-        <v>-1.5243295539855089e-07</v>
+        <v>3.8182515016521298e-08</v>
       </c>
       <c r="AS10" s="0">
-        <v>-1.5875204504123192e-07</v>
+        <v>3.7713982799136123e-08</v>
       </c>
       <c r="AT10" s="0">
-        <v>-1.5951161731363184e-07</v>
+        <v>3.4474204026636798e-08</v>
       </c>
       <c r="AU10" s="0">
-        <v>-1.2824936509244176e-07</v>
+        <v>3.4083142546425534e-08</v>
       </c>
       <c r="AV10" s="0">
-        <v>-1.3776239440489775e-07</v>
+        <v>3.3853793015142186e-08</v>
       </c>
       <c r="AW10" s="0">
-        <v>-1.2233855819224123e-07</v>
+        <v>2.9627641163052443e-08</v>
       </c>
       <c r="AX10" s="0">
-        <v>-1.4207125021641936e-07</v>
+        <v>2.6674480557256112e-08</v>
       </c>
       <c r="AY10" s="0">
-        <v>-1.2249694514734445e-07</v>
+        <v>2.7605800114290031e-08</v>
       </c>
       <c r="AZ10" s="0">
-        <v>-1.1585177683049888e-07</v>
+        <v>2.5366212879249639e-08</v>
       </c>
       <c r="BA10" s="0">
-        <v>-1.0987386190887302e-07</v>
+        <v>2.2135078424574425e-08</v>
       </c>
       <c r="BB10" s="0">
-        <v>-1.1035709715033696e-07</v>
+        <v>2.8996195733713769e-08</v>
       </c>
       <c r="BC10" s="0">
-        <v>-7.0209330930087396e-08</v>
+        <v>2.6815885567030817e-08</v>
       </c>
       <c r="BD10" s="0">
-        <v>-8.4391700108733079e-08</v>
+        <v>2.6215083843735676e-08</v>
       </c>
       <c r="BE10" s="0">
-        <v>-8.5877907993944343e-08</v>
+        <v>2.3179521026319665e-08</v>
       </c>
       <c r="BF10" s="0">
-        <v>-6.9165779590159623e-08</v>
+        <v>2.5906383536746707e-08</v>
       </c>
       <c r="BG10" s="0">
-        <v>-5.1234231741385054e-08</v>
+        <v>1.6625531722778761e-08</v>
       </c>
       <c r="BH10" s="0">
-        <v>-4.9495644443974107e-08</v>
+        <v>1.6753821351293278e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.00018465882154879393</v>
+        <v>-0.0078986237201534443</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.00056954465841354575</v>
+        <v>-0.019636261269084115</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.00091064306429767823</v>
+        <v>-0.030560252746760479</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0012082945095673464</v>
+        <v>-0.040763918898004008</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0014708438986278485</v>
+        <v>-0.050245504280307211</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0017037073513801924</v>
+        <v>-0.059004807718884236</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.0019110923408801116</v>
+        <v>-0.067049984523586764</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0020963384133444157</v>
+        <v>-0.07440619830860068</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.0022623087286828764</v>
+        <v>-0.081106476039581349</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.0024101896443136758</v>
+        <v>-0.087188533570576834</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.002546174859644491</v>
+        <v>-0.092692734642495181</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.002667294064220871</v>
+        <v>-0.097660184240492331</v>
       </c>
       <c r="M11" s="0">
-        <v>-0.002776907650607298</v>
+        <v>-0.10213165416691036</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.0028762574736774875</v>
+        <v>-0.10614659711923013</v>
       </c>
       <c r="O11" s="0">
-        <v>-0.0029664563377153202</v>
+        <v>-0.10974320076660508</v>
       </c>
       <c r="P11" s="0">
-        <v>-0.0030485029356625884</v>
+        <v>-0.1129576391750553</v>
       </c>
       <c r="Q11" s="0">
-        <v>-0.0031232523623022593</v>
+        <v>-0.11582383482830295</v>
       </c>
       <c r="R11" s="0">
-        <v>-0.0031914065233081042</v>
+        <v>-0.11837375215025783</v>
       </c>
       <c r="S11" s="0">
-        <v>-0.0032536569249040173</v>
+        <v>-0.12063718390117098</v>
       </c>
       <c r="T11" s="0">
-        <v>-0.0033105866405761862</v>
+        <v>-0.12264174462753541</v>
       </c>
       <c r="U11" s="0">
-        <v>-0.003362709397287954</v>
+        <v>-0.12441311007463181</v>
       </c>
       <c r="V11" s="0">
-        <v>-0.0034104771315911502</v>
+        <v>-0.12597479770830391</v>
       </c>
       <c r="W11" s="0">
-        <v>-0.0034543130648511679</v>
+        <v>-0.12734899325768906</v>
       </c>
       <c r="X11" s="0">
-        <v>-0.0034946077567932503</v>
+        <v>-0.12855564463641495</v>
       </c>
       <c r="Y11" s="0">
-        <v>-0.0035316258850457537</v>
+        <v>-0.12961248266074035</v>
       </c>
       <c r="Z11" s="0">
-        <v>-0.0035657062726819032</v>
+        <v>-0.13053655855047758</v>
       </c>
       <c r="AA11" s="0">
-        <v>-0.0035971172363500089</v>
+        <v>-0.13134313459801841</v>
       </c>
       <c r="AB11" s="0">
-        <v>-0.0036260770875716081</v>
+        <v>-0.13204608215591596</v>
       </c>
       <c r="AC11" s="0">
-        <v>-0.0036527420322132916</v>
+        <v>-0.13265800814845505</v>
       </c>
       <c r="AD11" s="0">
-        <v>-0.0036771654127292675</v>
+        <v>-0.1331903435398073</v>
       </c>
       <c r="AE11" s="0">
-        <v>-0.003700112161238083</v>
+        <v>-0.13365344332438731</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.0037213839668237539</v>
+        <v>-0.13405667737793497</v>
       </c>
       <c r="AG11" s="0">
-        <v>-0.0037411251609569709</v>
+        <v>-0.13440812133631344</v>
       </c>
       <c r="AH11" s="0">
-        <v>-0.0037595150500601511</v>
+        <v>-0.1347162070283785</v>
       </c>
       <c r="AI11" s="0">
-        <v>-0.003776629370409262</v>
+        <v>-0.13498745447420307</v>
       </c>
       <c r="AJ11" s="0">
-        <v>-0.0037926030766023593</v>
+        <v>-0.13522808262647149</v>
       </c>
       <c r="AK11" s="0">
-        <v>-0.0038075388206766968</v>
+        <v>-0.13544368907082144</v>
       </c>
       <c r="AL11" s="0">
-        <v>-0.0038215219252740514</v>
+        <v>-0.1356393216805811</v>
       </c>
       <c r="AM11" s="0">
-        <v>-0.0038346511263275974</v>
+        <v>-0.1358195756628082</v>
       </c>
       <c r="AN11" s="0">
-        <v>-0.0038470001936100704</v>
+        <v>-0.13598854156745102</v>
       </c>
       <c r="AO11" s="0">
-        <v>-0.0038586253298383642</v>
+        <v>-0.13614989811740674</v>
       </c>
       <c r="AP11" s="0">
-        <v>-0.0038696642945891492</v>
+        <v>-0.13630701063831269</v>
       </c>
       <c r="AQ11" s="0">
-        <v>-0.0038800985822015246</v>
+        <v>-0.13646289283704183</v>
       </c>
       <c r="AR11" s="0">
-        <v>-0.0038900639076357036</v>
+        <v>-0.13662031264978991</v>
       </c>
       <c r="AS11" s="0">
-        <v>-0.00389946992939561</v>
+        <v>-0.13678155534293718</v>
       </c>
       <c r="AT11" s="0">
-        <v>-0.0039085391523302048</v>
+        <v>-0.13694909177758646</v>
       </c>
       <c r="AU11" s="0">
-        <v>-0.0039171962087719931</v>
+        <v>-0.13712482532532053</v>
       </c>
       <c r="AV11" s="0">
-        <v>-0.0039255469038101546</v>
+        <v>-0.137310584883023</v>
       </c>
       <c r="AW11" s="0">
-        <v>-0.0039336025341639852</v>
+        <v>-0.13750767754279491</v>
       </c>
       <c r="AX11" s="0">
-        <v>-0.0039413881986916748</v>
+        <v>-0.13771809353239028</v>
       </c>
       <c r="AY11" s="0">
-        <v>-0.0039489386109126893</v>
+        <v>-0.13794334349824952</v>
       </c>
       <c r="AZ11" s="0">
-        <v>-0.0039562312086620088</v>
+        <v>-0.13818462471901538</v>
       </c>
       <c r="BA11" s="0">
-        <v>-0.0039634200503408388</v>
+        <v>-0.13844299164491267</v>
       </c>
       <c r="BB11" s="0">
-        <v>-0.0039705465806392226</v>
+        <v>-0.1387195607923388</v>
       </c>
       <c r="BC11" s="0">
-        <v>-0.003977438490482924</v>
+        <v>-0.13901535265942905</v>
       </c>
       <c r="BD11" s="0">
-        <v>-0.0039842398618862651</v>
+        <v>-0.13933133268830777</v>
       </c>
       <c r="BE11" s="0">
-        <v>-0.0039909620659151169</v>
+        <v>-0.13966819056092639</v>
       </c>
       <c r="BF11" s="0">
-        <v>-0.0039975875622802878</v>
+        <v>-0.1400269388460699</v>
       </c>
       <c r="BG11" s="0">
-        <v>-0.0040041742283002451</v>
+        <v>-0.14040840346322761</v>
       </c>
       <c r="BH11" s="0">
-        <v>-0.0040107362161977802</v>
+        <v>-0.14081332288998852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.00036931662612527176</v>
+        <v>-0.015799015215016216</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0011390882762307138</v>
+        <v>-0.039273540497745174</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0018212959124918357</v>
+        <v>-0.061121327412157082</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.0024187661991692338</v>
+        <v>-0.081528328581977796</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0029435582544451552</v>
+        <v>-0.10049140686110393</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0034091359302657895</v>
+        <v>-0.11800623017684538</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.0038242812260069906</v>
+        <v>-0.1340954060257053</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.0041943444993652662</v>
+        <v>-0.1488080346594006</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0045258452559399642</v>
+        <v>-0.16220877793672248</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.0048251843059379821</v>
+        <v>-0.17437309919673977</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0050945243401049663</v>
+        <v>-0.18538167819156171</v>
       </c>
       <c r="L12" s="0">
-        <v>-0.0053365900712291454</v>
+        <v>-0.195316746597542</v>
       </c>
       <c r="M12" s="0">
-        <v>-0.0055556829683090173</v>
+        <v>-0.20425983219641428</v>
       </c>
       <c r="N12" s="0">
-        <v>-0.0057542587662553846</v>
+        <v>-0.21229004318890601</v>
       </c>
       <c r="O12" s="0">
-        <v>-0.0059345718410625846</v>
+        <v>-0.21948351127884608</v>
       </c>
       <c r="P12" s="0">
-        <v>-0.0060985423897313021</v>
+        <v>-0.22591252874564149</v>
       </c>
       <c r="Q12" s="0">
-        <v>-0.0062478711822006698</v>
+        <v>-0.23164521310527864</v>
       </c>
       <c r="R12" s="0">
-        <v>-0.0063840969614082236</v>
+        <v>-0.2367454408018842</v>
       </c>
       <c r="S12" s="0">
-        <v>-0.006508531537186734</v>
+        <v>-0.24127235146096498</v>
       </c>
       <c r="T12" s="0">
-        <v>-0.00662229989381508</v>
+        <v>-0.24528153425346458</v>
       </c>
       <c r="U12" s="0">
-        <v>-0.0067264733874931263</v>
+        <v>-0.24882432228476067</v>
       </c>
       <c r="V12" s="0">
-        <v>-0.006821974366536596</v>
+        <v>-0.25194792734054705</v>
       </c>
       <c r="W12" s="0">
-        <v>-0.0069095800070021682</v>
+        <v>-0.25469626973314319</v>
       </c>
       <c r="X12" s="0">
-        <v>-0.0069900782355454688</v>
+        <v>-0.25710924677418656</v>
       </c>
       <c r="Y12" s="0">
-        <v>-0.007064073310626676</v>
+        <v>-0.25922291587515434</v>
       </c>
       <c r="Z12" s="0">
-        <v>-0.0071322079708658771</v>
+        <v>-0.26107111800256422</v>
       </c>
       <c r="AA12" s="0">
-        <v>-0.0071950010569441902</v>
+        <v>-0.26268431610651394</v>
       </c>
       <c r="AB12" s="0">
-        <v>-0.0072529265652448733</v>
+        <v>-0.2640902535524719</v>
       </c>
       <c r="AC12" s="0">
-        <v>-0.0073063205366806919</v>
+        <v>-0.26531414122268687</v>
       </c>
       <c r="AD12" s="0">
-        <v>-0.0073557386203931506</v>
+        <v>-0.26637884285283048</v>
       </c>
       <c r="AE12" s="0">
-        <v>-0.007401587529710171</v>
+        <v>-0.26730507010256471</v>
       </c>
       <c r="AF12" s="0">
-        <v>-0.0074437711755856581</v>
+        <v>-0.26811116550048703</v>
       </c>
       <c r="AG12" s="0">
-        <v>-0.007483285589886134</v>
+        <v>-0.26881447424321669</v>
       </c>
       <c r="AH12" s="0">
-        <v>-0.0075203067799158941</v>
+        <v>-0.26943030779562505</v>
       </c>
       <c r="AI12" s="0">
-        <v>-0.0075545083102378924</v>
+        <v>-0.26997284432799395</v>
       </c>
       <c r="AJ12" s="0">
-        <v>-0.0075864004265707814</v>
+        <v>-0.27045413301522209</v>
       </c>
       <c r="AK12" s="0">
-        <v>-0.0076162048557862341</v>
+        <v>-0.27088538570270798</v>
       </c>
       <c r="AL12" s="0">
-        <v>-0.0076441268341049503</v>
+        <v>-0.2712767095160859</v>
       </c>
       <c r="AM12" s="0">
-        <v>-0.0076703465283164789</v>
+        <v>-0.27163724375520482</v>
       </c>
       <c r="AN12" s="0">
-        <v>-0.0076950141522649871</v>
+        <v>-0.2719751705694412</v>
       </c>
       <c r="AO12" s="0">
-        <v>-0.0077182743480974109</v>
+        <v>-0.27229790153343425</v>
       </c>
       <c r="AP12" s="0">
-        <v>-0.0077402660069106144</v>
+        <v>-0.27261233414064523</v>
       </c>
       <c r="AQ12" s="0">
-        <v>-0.0077611160779140383</v>
+        <v>-0.27292408998180889</v>
       </c>
       <c r="AR12" s="0">
-        <v>-0.00778094291135776</v>
+        <v>-0.2732388617941226</v>
       </c>
       <c r="AS12" s="0">
-        <v>-0.0077998440470901107</v>
+        <v>-0.2735615294677714</v>
       </c>
       <c r="AT12" s="0">
-        <v>-0.0078178854664676823</v>
+        <v>-0.27389654006600994</v>
       </c>
       <c r="AU12" s="0">
-        <v>-0.0078351711907824334</v>
+        <v>-0.27424793762297878</v>
       </c>
       <c r="AV12" s="0">
-        <v>-0.0078518589929160998</v>
+        <v>-0.27461954662402543</v>
       </c>
       <c r="AW12" s="0">
-        <v>-0.00786788674277571</v>
+        <v>-0.27501401532222391</v>
       </c>
       <c r="AX12" s="0">
-        <v>-0.0078834801507093946</v>
+        <v>-0.2754350970110172</v>
       </c>
       <c r="AY12" s="0">
-        <v>-0.0078985386083114638</v>
+        <v>-0.27588548361190007</v>
       </c>
       <c r="AZ12" s="0">
-        <v>-0.0079132436291810323</v>
+        <v>-0.27636769084116952</v>
       </c>
       <c r="BA12" s="0">
-        <v>-0.0079275831417786342</v>
+        <v>-0.27688411194028861</v>
       </c>
       <c r="BB12" s="0">
-        <v>-0.0079416379031413045</v>
+        <v>-0.27743724109439288</v>
       </c>
       <c r="BC12" s="0">
-        <v>-0.0079554000837527353</v>
+        <v>-0.27802882371375398</v>
       </c>
       <c r="BD12" s="0">
-        <v>-0.0079690066428835509</v>
+        <v>-0.27866058059844662</v>
       </c>
       <c r="BE12" s="0">
-        <v>-0.0079824295913677561</v>
+        <v>-0.27933442289295318</v>
       </c>
       <c r="BF12" s="0">
-        <v>-0.0079956871010700269</v>
+        <v>-0.28005208306967688</v>
       </c>
       <c r="BG12" s="0">
-        <v>-0.008008864249023865</v>
+        <v>-0.28081513839995992</v>
       </c>
       <c r="BH12" s="0">
-        <v>-0.0080219359206840351</v>
+        <v>-0.28162510689191478</v>
       </c>
     </row>
     <row r="13">
@@ -2671,2185 +2671,2003 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
+        <v>0.99999999999999545</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.99999999999998757</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.9999999999999919</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.99999999999998646</v>
+      </c>
+      <c r="E14" s="0">
+        <v>1.0000000000000038</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.99999999999999512</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.99999999999999267</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.99999999999999911</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1.0000000000000029</v>
+      </c>
+      <c r="J14" s="0">
+        <v>1.0000000000000022</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0.9999999999999899</v>
+      </c>
+      <c r="L14" s="0">
+        <v>1.0000000000000033</v>
+      </c>
+      <c r="M14" s="0">
+        <v>0.99999999999999933</v>
+      </c>
+      <c r="N14" s="0">
+        <v>0.99999999999999667</v>
+      </c>
+      <c r="O14" s="0">
+        <v>0.99999999999998923</v>
+      </c>
+      <c r="P14" s="0">
+        <v>0.99999999999998113</v>
+      </c>
+      <c r="Q14" s="0">
+        <v>1.000000000000002</v>
+      </c>
+      <c r="R14" s="0">
+        <v>0.99999999999999944</v>
+      </c>
+      <c r="S14" s="0">
+        <v>0.99999999999999845</v>
+      </c>
+      <c r="T14" s="0">
+        <v>1.0000000000000047</v>
+      </c>
+      <c r="U14" s="0">
+        <v>0.99999999999999822</v>
+      </c>
+      <c r="V14" s="0">
+        <v>0.99999999999999467</v>
+      </c>
+      <c r="W14" s="0">
+        <v>0.99999999999999478</v>
+      </c>
+      <c r="X14" s="0">
+        <v>0.99999999999999656</v>
+      </c>
+      <c r="Y14" s="0">
+        <v>0.99999999999998213</v>
+      </c>
+      <c r="Z14" s="0">
+        <v>0.99999999999998712</v>
+      </c>
+      <c r="AA14" s="0">
+        <v>0.99999999999998179</v>
+      </c>
+      <c r="AB14" s="0">
+        <v>1.0000000000000093</v>
+      </c>
+      <c r="AC14" s="0">
+        <v>0.9999999999999899</v>
+      </c>
+      <c r="AD14" s="0">
+        <v>0.99999999999998912</v>
+      </c>
+      <c r="AE14" s="0">
+        <v>0.999999999999996</v>
+      </c>
+      <c r="AF14" s="0">
+        <v>1.0000000000000078</v>
+      </c>
+      <c r="AG14" s="0">
+        <v>0.99999999999998634</v>
+      </c>
+      <c r="AH14" s="0">
+        <v>0.99999999999998734</v>
+      </c>
+      <c r="AI14" s="0">
+        <v>0.99999999999999789</v>
+      </c>
+      <c r="AJ14" s="0">
+        <v>0.99999999999999201</v>
+      </c>
+      <c r="AK14" s="0">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="AL14" s="0">
+        <v>1.0000000000000016</v>
+      </c>
+      <c r="AM14" s="0">
+        <v>0.99999999999997535</v>
+      </c>
+      <c r="AN14" s="0">
+        <v>0.99999999999999223</v>
+      </c>
+      <c r="AO14" s="0">
+        <v>0.99999999999999933</v>
+      </c>
+      <c r="AP14" s="0">
+        <v>0.99999999999999079</v>
+      </c>
+      <c r="AQ14" s="0">
         <v>0.99999999999999356</v>
       </c>
-      <c r="B14" s="0">
-        <v>0.999999999999996</v>
-      </c>
-      <c r="C14" s="0">
-        <v>0.99999999999998868</v>
-      </c>
-      <c r="D14" s="0">
-        <v>1.0000000000000047</v>
-      </c>
-      <c r="E14" s="0">
-        <v>0.99999999999998868</v>
-      </c>
-      <c r="F14" s="0">
-        <v>1.0000000000000107</v>
-      </c>
-      <c r="G14" s="0">
-        <v>0.99999999999997924</v>
-      </c>
-      <c r="H14" s="0">
-        <v>0.99999999999999145</v>
-      </c>
-      <c r="I14" s="0">
-        <v>0.99999999999999079</v>
-      </c>
-      <c r="J14" s="0">
-        <v>0.99999999999999656</v>
-      </c>
-      <c r="K14" s="0">
-        <v>0.99999999999999778</v>
-      </c>
-      <c r="L14" s="0">
-        <v>0.99999999999999223</v>
-      </c>
-      <c r="M14" s="0">
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="N14" s="0">
-        <v>1.0000000000000029</v>
-      </c>
-      <c r="O14" s="0">
-        <v>0.99999999999999412</v>
-      </c>
-      <c r="P14" s="0">
-        <v>1.0000000000000131</v>
-      </c>
-      <c r="Q14" s="0">
-        <v>1.00000000000001</v>
-      </c>
-      <c r="R14" s="0">
-        <v>0.99999999999999745</v>
-      </c>
-      <c r="S14" s="0">
-        <v>0.99999999999998557</v>
-      </c>
-      <c r="T14" s="0">
-        <v>0.99999999999999289</v>
-      </c>
-      <c r="U14" s="0">
-        <v>0.9999999999999859</v>
-      </c>
-      <c r="V14" s="0">
+      <c r="AR14" s="0">
+        <v>0.99999999999998546</v>
+      </c>
+      <c r="AS14" s="0">
+        <v>0.99999999999998912</v>
+      </c>
+      <c r="AT14" s="0">
+        <v>0.99999999999999167</v>
+      </c>
+      <c r="AU14" s="0">
         <v>0.999999999999997</v>
       </c>
-      <c r="W14" s="0">
-        <v>0.99999999999998146</v>
-      </c>
-      <c r="X14" s="0">
-        <v>1.0000000000000091</v>
-      </c>
-      <c r="Y14" s="0">
-        <v>0.99999999999999811</v>
-      </c>
-      <c r="Z14" s="0">
-        <v>1.0000000000000087</v>
-      </c>
-      <c r="AA14" s="0">
-        <v>0.99999999999999623</v>
-      </c>
-      <c r="AB14" s="0">
-        <v>0.99999999999999067</v>
-      </c>
-      <c r="AC14" s="0">
-        <v>1.0000000000000049</v>
-      </c>
-      <c r="AD14" s="0">
-        <v>0.99999999999999201</v>
-      </c>
-      <c r="AE14" s="0">
-        <v>1.0000000000000047</v>
-      </c>
-      <c r="AF14" s="0">
-        <v>0.99999999999999356</v>
-      </c>
-      <c r="AG14" s="0">
-        <v>0.99999999999998546</v>
-      </c>
-      <c r="AH14" s="0">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="AI14" s="0">
-        <v>1.0000000000000091</v>
-      </c>
-      <c r="AJ14" s="0">
-        <v>0.99999999999999223</v>
-      </c>
-      <c r="AK14" s="0">
-        <v>1.0000000000000016</v>
-      </c>
-      <c r="AL14" s="0">
+      <c r="AV14" s="0">
+        <v>0.99999999999998335</v>
+      </c>
+      <c r="AW14" s="0">
+        <v>0.99999999999999134</v>
+      </c>
+      <c r="AX14" s="0">
+        <v>0.99999999999999323</v>
+      </c>
+      <c r="AY14" s="0">
+        <v>0.99999999999999167</v>
+      </c>
+      <c r="AZ14" s="0">
+        <v>0.99999999999998712</v>
+      </c>
+      <c r="BA14" s="0">
+        <v>0.99999999999998512</v>
+      </c>
+      <c r="BB14" s="0">
+        <v>0.99999999999999944</v>
+      </c>
+      <c r="BC14" s="0">
+        <v>0.99999999999999789</v>
+      </c>
+      <c r="BD14" s="0">
+        <v>0.999999999999997</v>
+      </c>
+      <c r="BE14" s="0">
+        <v>0.99999999999999878</v>
+      </c>
+      <c r="BF14" s="0">
         <v>1.0000000000000027</v>
       </c>
-      <c r="AM14" s="0">
-        <v>0.99999999999999512</v>
-      </c>
-      <c r="AN14" s="0">
-        <v>0.99999999999999134</v>
-      </c>
-      <c r="AO14" s="0">
-        <v>0.99999999999999045</v>
-      </c>
-      <c r="AP14" s="0">
-        <v>1.0000000000000067</v>
-      </c>
-      <c r="AQ14" s="0">
-        <v>0.99999999999998179</v>
-      </c>
-      <c r="AR14" s="0">
-        <v>0.99999999999999545</v>
-      </c>
-      <c r="AS14" s="0">
-        <v>0.99999999999999478</v>
-      </c>
-      <c r="AT14" s="0">
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="AU14" s="0">
-        <v>0.99999999999999623</v>
-      </c>
-      <c r="AV14" s="0">
-        <v>1.0000000000000016</v>
-      </c>
-      <c r="AW14" s="0">
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="AX14" s="0">
-        <v>1.0000000000000067</v>
-      </c>
-      <c r="AY14" s="0">
-        <v>0.99999999999998956</v>
-      </c>
-      <c r="AZ14" s="0">
-        <v>1.0000000000000124</v>
-      </c>
-      <c r="BA14" s="0">
-        <v>1.000000000000008</v>
-      </c>
-      <c r="BB14" s="0">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="BC14" s="0">
-        <v>1.0000000000000135</v>
-      </c>
-      <c r="BD14" s="0">
-        <v>1.000000000000002</v>
-      </c>
-      <c r="BE14" s="0">
-        <v>0.99999999999999145</v>
-      </c>
-      <c r="BF14" s="0">
-        <v>0.99999999999999112</v>
-      </c>
       <c r="BG14" s="0">
-        <v>0.99999999999999656</v>
+        <v>0.999999999999997</v>
       </c>
       <c r="BH14" s="0">
-        <v>0.99999999999999811</v>
+        <v>0.99999999999998701</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.034293215252106234</v>
+        <v>0.036199583176637448</v>
       </c>
       <c r="B15" s="0">
-        <v>0.028455574087393708</v>
+        <v>0.024005541434795424</v>
       </c>
       <c r="C15" s="0">
-        <v>0.010729665579809056</v>
+        <v>0.011200436566870794</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0066702505675128778</v>
+        <v>-0.0017589648461173704</v>
       </c>
       <c r="E15" s="0">
-        <v>-0.022999120545554527</v>
+        <v>-0.014377276698043371</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.037982947692164648</v>
+        <v>-0.02628325472571701</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.051496280511870898</v>
+        <v>-0.03722341213655149</v>
       </c>
       <c r="H15" s="0">
-        <v>-0.063512379984530534</v>
+        <v>-0.04705120435182647</v>
       </c>
       <c r="I15" s="0">
-        <v>-0.074067212208398181</v>
+        <v>-0.055697191938539371</v>
       </c>
       <c r="J15" s="0">
-        <v>-0.08322613457185897</v>
+        <v>-0.063148345616377277</v>
       </c>
       <c r="K15" s="0">
-        <v>-0.091083960638433978</v>
+        <v>-0.0694317531888798</v>
       </c>
       <c r="L15" s="0">
-        <v>-0.097734923464360912</v>
+        <v>-0.074601684108874855</v>
       </c>
       <c r="M15" s="0">
-        <v>-0.10328053398429787</v>
+        <v>-0.078729994735341743</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.10781946150504969</v>
+        <v>-0.081898833468705412</v>
       </c>
       <c r="O15" s="0">
-        <v>-0.11144524759641172</v>
+        <v>-0.084195682974338895</v>
       </c>
       <c r="P15" s="0">
-        <v>-0.11424714933546376</v>
+        <v>-0.085709344380255931</v>
       </c>
       <c r="Q15" s="0">
-        <v>-0.11630801945254017</v>
+        <v>-0.086526878049143274</v>
       </c>
       <c r="R15" s="0">
-        <v>-0.11770459497193969</v>
+        <v>-0.086732511598620679</v>
       </c>
       <c r="S15" s="0">
-        <v>-0.11850741446417073</v>
+        <v>-0.08640577956256186</v>
       </c>
       <c r="T15" s="0">
-        <v>-0.11878043895222481</v>
+        <v>-0.085620679838179226</v>
       </c>
       <c r="U15" s="0">
-        <v>-0.11858424833372026</v>
+        <v>-0.08444563489426582</v>
       </c>
       <c r="V15" s="0">
-        <v>-0.11797261000053604</v>
+        <v>-0.082942957876124851</v>
       </c>
       <c r="W15" s="0">
-        <v>-0.11699430239474798</v>
+        <v>-0.081169555465586657</v>
       </c>
       <c r="X15" s="0">
-        <v>-0.11569406190669357</v>
+        <v>-0.079175805505619895</v>
       </c>
       <c r="Y15" s="0">
-        <v>-0.11411256101422898</v>
+        <v>-0.077007033887835377</v>
       </c>
       <c r="Z15" s="0">
-        <v>-0.11228660002237816</v>
+        <v>-0.074703310811022425</v>
       </c>
       <c r="AA15" s="0">
-        <v>-0.11024957328824399</v>
+        <v>-0.072299798475947905</v>
       </c>
       <c r="AB15" s="0">
-        <v>-0.10803170822132845</v>
+        <v>-0.069827208403698618</v>
       </c>
       <c r="AC15" s="0">
-        <v>-0.10566023240487034</v>
+        <v>-0.06731216897510299</v>
       </c>
       <c r="AD15" s="0">
-        <v>-0.10315977704183051</v>
+        <v>-0.064777590992710229</v>
       </c>
       <c r="AE15" s="0">
-        <v>-0.10055307723448113</v>
+        <v>-0.062243039797284162</v>
       </c>
       <c r="AF15" s="0">
-        <v>-0.097860031629522531</v>
+        <v>-0.059725081340918661</v>
       </c>
       <c r="AG15" s="0">
-        <v>-0.095098548711270381</v>
+        <v>-0.057237222779893175</v>
       </c>
       <c r="AH15" s="0">
-        <v>-0.092284978943869</v>
+        <v>-0.054791763146618454</v>
       </c>
       <c r="AI15" s="0">
-        <v>-0.089433830048409019</v>
+        <v>-0.052397742539317914</v>
       </c>
       <c r="AJ15" s="0">
-        <v>-0.086558191619727637</v>
+        <v>-0.050062757163189461</v>
       </c>
       <c r="AK15" s="0">
-        <v>-0.083669698977849288</v>
+        <v>-0.047792800756887591</v>
       </c>
       <c r="AL15" s="0">
-        <v>-0.080778718365936947</v>
+        <v>-0.045592462120182531</v>
       </c>
       <c r="AM15" s="0">
-        <v>-0.077894492132883103</v>
+        <v>-0.043465129849754397</v>
       </c>
       <c r="AN15" s="0">
-        <v>-0.075025196817842366</v>
+        <v>-0.041413152330508483</v>
       </c>
       <c r="AO15" s="0">
-        <v>-0.072178080994120847</v>
+        <v>-0.039438026086733968</v>
       </c>
       <c r="AP15" s="0">
-        <v>-0.069359387593854988</v>
+        <v>-0.037540457021101321</v>
       </c>
       <c r="AQ15" s="0">
-        <v>-0.066574769458327951</v>
+        <v>-0.035720515664381981</v>
       </c>
       <c r="AR15" s="0">
-        <v>-0.063829006173985098</v>
+        <v>-0.033977763464358095</v>
       </c>
       <c r="AS15" s="0">
-        <v>-0.061126346025428109</v>
+        <v>-0.032311229210199029</v>
       </c>
       <c r="AT15" s="0">
-        <v>-0.05847031543885383</v>
+        <v>-0.030719841295778542</v>
       </c>
       <c r="AU15" s="0">
-        <v>-0.055863963374322978</v>
+        <v>-0.029201852516213843</v>
       </c>
       <c r="AV15" s="0">
-        <v>-0.053309862261150226</v>
+        <v>-0.027755533390823654</v>
       </c>
       <c r="AW15" s="0">
-        <v>-0.050810136135433268</v>
+        <v>-0.026378904430749989</v>
       </c>
       <c r="AX15" s="0">
-        <v>-0.048366501910462337</v>
+        <v>-0.025069845166280708</v>
       </c>
       <c r="AY15" s="0">
-        <v>-0.0459803286819696</v>
+        <v>-0.023826152175875876</v>
       </c>
       <c r="AZ15" s="0">
-        <v>-0.043652695038552181</v>
+        <v>-0.022645524273276676</v>
       </c>
       <c r="BA15" s="0">
-        <v>-0.041384211478641374</v>
+        <v>-0.021525627804692544</v>
       </c>
       <c r="BB15" s="0">
-        <v>-0.039175525119943821</v>
+        <v>-0.020464101252917175</v>
       </c>
       <c r="BC15" s="0">
-        <v>-0.037026804041050937</v>
+        <v>-0.019458603562914824</v>
       </c>
       <c r="BD15" s="0">
-        <v>-0.034938132173907371</v>
+        <v>-0.018506786152410762</v>
       </c>
       <c r="BE15" s="0">
-        <v>-0.032909350570513612</v>
+        <v>-0.017606373426005312</v>
       </c>
       <c r="BF15" s="0">
-        <v>-0.030940176114042883</v>
+        <v>-0.016755046808551138</v>
       </c>
       <c r="BG15" s="0">
-        <v>-0.02903016143219856</v>
+        <v>-0.015950629778410629</v>
       </c>
       <c r="BH15" s="0">
-        <v>-0.027178659110690007</v>
+        <v>-0.015190959988230683</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>4.6499941081104651e-10</v>
+        <v>1.096709790501441e-05</v>
       </c>
       <c r="B16" s="0">
-        <v>-1.1203573281669788e-07</v>
+        <v>4.3970450294016329e-05</v>
       </c>
       <c r="C16" s="0">
-        <v>-6.8966235952270231e-07</v>
+        <v>9.6829735306117051e-05</v>
       </c>
       <c r="D16" s="0">
-        <v>-6.2673327264856991e-07</v>
+        <v>0.00016789631251907698</v>
       </c>
       <c r="E16" s="0">
-        <v>-5.6970467947797186e-07</v>
+        <v>0.00025552122984861988</v>
       </c>
       <c r="F16" s="0">
-        <v>-6.3991291280176374e-07</v>
+        <v>0.0003559064113255838</v>
       </c>
       <c r="G16" s="0">
-        <v>-5.7248320945546338e-07</v>
+        <v>0.00047150530022296909</v>
       </c>
       <c r="H16" s="0">
-        <v>-5.2495388342642048e-07</v>
+        <v>0.0005987527445312082</v>
       </c>
       <c r="I16" s="0">
-        <v>-4.7436520194425972e-07</v>
+        <v>0.00073633162550864608</v>
       </c>
       <c r="J16" s="0">
-        <v>-4.3214227371338432e-07</v>
+        <v>0.00088304393762507168</v>
       </c>
       <c r="K16" s="0">
-        <v>-7.1103015685096876e-07</v>
+        <v>0.0010378209494935314</v>
       </c>
       <c r="L16" s="0">
-        <v>-7.5607681056303519e-07</v>
+        <v>0.0011996960459276452</v>
       </c>
       <c r="M16" s="0">
-        <v>-6.8828768883721177e-07</v>
+        <v>0.0013678174328337475</v>
       </c>
       <c r="N16" s="0">
-        <v>-6.134037431013431e-07</v>
+        <v>0.0015414050818000609</v>
       </c>
       <c r="O16" s="0">
-        <v>-5.4109037849717661e-07</v>
+        <v>0.0017197696326114592</v>
       </c>
       <c r="P16" s="0">
-        <v>-4.8688788383166887e-07</v>
+        <v>0.0019022893486013161</v>
       </c>
       <c r="Q16" s="0">
-        <v>-4.4629036631379597e-07</v>
+        <v>0.0020884078577094027</v>
       </c>
       <c r="R16" s="0">
-        <v>-3.9871320345389947e-07</v>
+        <v>0.0022775977951998969</v>
       </c>
       <c r="S16" s="0">
-        <v>-3.6215798411074855e-07</v>
+        <v>0.002469412536571573</v>
       </c>
       <c r="T16" s="0">
-        <v>-3.0131016859304193e-07</v>
+        <v>0.0026634407958613477</v>
       </c>
       <c r="U16" s="0">
-        <v>-3.0974863148892175e-07</v>
+        <v>0.0028593140711348376</v>
       </c>
       <c r="V16" s="0">
-        <v>-2.4075936628752091e-07</v>
+        <v>0.0030567027688271253</v>
       </c>
       <c r="W16" s="0">
-        <v>-2.1085189476302861e-07</v>
+        <v>0.0032553164286323192</v>
       </c>
       <c r="X16" s="0">
-        <v>-1.9348588005467018e-07</v>
+        <v>0.0034548887563443458</v>
       </c>
       <c r="Y16" s="0">
-        <v>-1.6933828811270389e-07</v>
+        <v>0.0036551929046936709</v>
       </c>
       <c r="Z16" s="0">
-        <v>-1.3935990089332526e-07</v>
+        <v>0.0038560280171671055</v>
       </c>
       <c r="AA16" s="0">
-        <v>-9.3015515253335939e-08</v>
+        <v>0.0040572186386279505</v>
       </c>
       <c r="AB16" s="0">
-        <v>-9.0596270362418068e-08</v>
+        <v>0.0042586140850258639</v>
       </c>
       <c r="AC16" s="0">
-        <v>-7.6751460349159459e-08</v>
+        <v>0.0044600858355789271</v>
       </c>
       <c r="AD16" s="0">
-        <v>-4.0585803719134807e-08</v>
+        <v>0.0046615257659640228</v>
       </c>
       <c r="AE16" s="0">
-        <v>-2.5099089182197952e-08</v>
+        <v>0.004862844705863587</v>
       </c>
       <c r="AF16" s="0">
-        <v>1.7545461938119672e-08</v>
+        <v>0.005063971242346507</v>
       </c>
       <c r="AG16" s="0">
-        <v>4.4725033963256905e-09</v>
+        <v>0.0052648488041090458</v>
       </c>
       <c r="AH16" s="0">
-        <v>4.6396880197973871e-08</v>
+        <v>0.005465436047205517</v>
       </c>
       <c r="AI16" s="0">
-        <v>5.3720358534230822e-08</v>
+        <v>0.0056656963463901904</v>
       </c>
       <c r="AJ16" s="0">
-        <v>5.8616425329583445e-08</v>
+        <v>0.0058656376711959607</v>
       </c>
       <c r="AK16" s="0">
-        <v>7.8168578096186475e-08</v>
+        <v>0.0060652294084655584</v>
       </c>
       <c r="AL16" s="0">
-        <v>9.2656298285005307e-08</v>
+        <v>0.0062644861376880663</v>
       </c>
       <c r="AM16" s="0">
-        <v>1.0690872350239103e-07</v>
+        <v>0.0064634129346789904</v>
       </c>
       <c r="AN16" s="0">
-        <v>1.2624721467238647e-07</v>
+        <v>0.0066620461425312858</v>
       </c>
       <c r="AO16" s="0">
-        <v>1.3854804674078528e-07</v>
+        <v>0.0068602412863968199</v>
       </c>
       <c r="AP16" s="0">
-        <v>1.7853452346956105e-07</v>
+        <v>0.0070583709142060117</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1.9336392423983587e-07</v>
+        <v>0.0072563107173177028</v>
       </c>
       <c r="AR16" s="0">
-        <v>1.8745182548699789e-07</v>
+        <v>0.007454164811216718</v>
       </c>
       <c r="AS16" s="0">
-        <v>2.3994724948595085e-07</v>
+        <v>0.0076517990675304768</v>
       </c>
       <c r="AT16" s="0">
-        <v>2.5859272051668412e-07</v>
+        <v>0.0078494555957567026</v>
       </c>
       <c r="AU16" s="0">
-        <v>2.4809848648780841e-07</v>
+        <v>0.0080471374663224193</v>
       </c>
       <c r="AV16" s="0">
-        <v>2.4502834895964636e-07</v>
+        <v>0.0082449054075850788</v>
       </c>
       <c r="AW16" s="0">
-        <v>3.0993622563642588e-07</v>
+        <v>0.0084428270264120808</v>
       </c>
       <c r="AX16" s="0">
-        <v>2.6780521643828055e-07</v>
+        <v>0.0086409892749041844</v>
       </c>
       <c r="AY16" s="0">
-        <v>2.9377981508812668e-07</v>
+        <v>0.0088394486002552584</v>
       </c>
       <c r="AZ16" s="0">
-        <v>2.5238828469584622e-07</v>
+        <v>0.0090382646641964902</v>
       </c>
       <c r="BA16" s="0">
-        <v>3.976192212478607e-07</v>
+        <v>0.0092375167507365106</v>
       </c>
       <c r="BB16" s="0">
-        <v>3.4360103015810125e-07</v>
+        <v>0.0094373226532085304</v>
       </c>
       <c r="BC16" s="0">
-        <v>3.6077525756698102e-07</v>
+        <v>0.0096377288309761489</v>
       </c>
       <c r="BD16" s="0">
-        <v>3.7640483340048672e-07</v>
+        <v>0.0098388280742424845</v>
       </c>
       <c r="BE16" s="0">
-        <v>3.7194071329734814e-07</v>
+        <v>0.010040709605224496</v>
       </c>
       <c r="BF16" s="0">
-        <v>3.8360089608151045e-07</v>
+        <v>0.010243436512109261</v>
       </c>
       <c r="BG16" s="0">
-        <v>4.1024704276591459e-07</v>
+        <v>0.010447127124631483</v>
       </c>
       <c r="BH16" s="0">
-        <v>4.1072652341793216e-07</v>
+        <v>0.010651865512630736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-1.723667102727018e-10</v>
+        <v>-0.00025299749210244818</v>
       </c>
       <c r="B17" s="0">
-        <v>1.1215181066816754e-07</v>
+        <v>-0.00064147408203802389</v>
       </c>
       <c r="C17" s="0">
-        <v>6.8794144827132733e-07</v>
+        <v>-0.00101449534993656</v>
       </c>
       <c r="D17" s="0">
-        <v>6.2694334346941621e-07</v>
+        <v>-0.0013401054825158824</v>
       </c>
       <c r="E17" s="0">
-        <v>5.6957309235984535e-07</v>
+        <v>-0.0015943634577431972</v>
       </c>
       <c r="F17" s="0">
-        <v>5.1799605871751129e-07</v>
+        <v>-0.0017593063568990344</v>
       </c>
       <c r="G17" s="0">
-        <v>4.7435681042258637e-07</v>
+        <v>-0.00182947554654515</v>
       </c>
       <c r="H17" s="0">
-        <v>4.3405267644271756e-07</v>
+        <v>-0.0017986568553813743</v>
       </c>
       <c r="I17" s="0">
-        <v>7.5144715057142048e-08</v>
+        <v>-0.0016668470660585995</v>
       </c>
       <c r="J17" s="0">
-        <v>1.4833614369958974e-06</v>
+        <v>-0.0014371361390483829</v>
       </c>
       <c r="K17" s="0">
-        <v>1.4834004654066736e-06</v>
+        <v>-0.0011149170555298949</v>
       </c>
       <c r="L17" s="0">
-        <v>1.3641937064440981e-06</v>
+        <v>-0.00070720781967253152</v>
       </c>
       <c r="M17" s="0">
-        <v>1.2776352548822139e-06</v>
+        <v>-0.00022209850109028342</v>
       </c>
       <c r="N17" s="0">
-        <v>1.1832308113883358e-06</v>
+        <v>0.00033171822578425257</v>
       </c>
       <c r="O17" s="0">
-        <v>1.0767213244093315e-06</v>
+        <v>0.00094515354818809258</v>
       </c>
       <c r="P17" s="0">
-        <v>9.963460859110412e-07</v>
+        <v>0.001609229996317175</v>
       </c>
       <c r="Q17" s="0">
-        <v>9.3689901203766109e-07</v>
+        <v>0.0023151443880653436</v>
       </c>
       <c r="R17" s="0">
-        <v>8.8636972732739314e-07</v>
+        <v>0.0030544474327719412</v>
       </c>
       <c r="S17" s="0">
-        <v>8.3208435313283693e-07</v>
+        <v>0.0038191900576372705</v>
       </c>
       <c r="T17" s="0">
-        <v>-4.8293869910374458e-08</v>
+        <v>0.0046020089841076412</v>
       </c>
       <c r="U17" s="0">
-        <v>-2.8908660368770908e-07</v>
+        <v>0.0053961610212148858</v>
       </c>
       <c r="V17" s="0">
-        <v>-2.8180680262644683e-07</v>
+        <v>0.0061955498514911353</v>
       </c>
       <c r="W17" s="0">
-        <v>-2.5982708819317004e-07</v>
+        <v>0.0069948010084501175</v>
       </c>
       <c r="X17" s="0">
-        <v>-2.3888049156182977e-07</v>
+        <v>0.0077890008151631903</v>
       </c>
       <c r="Y17" s="0">
-        <v>-2.2480271955835e-07</v>
+        <v>0.0085740443297904981</v>
       </c>
       <c r="Z17" s="0">
-        <v>-1.9828606626681367e-07</v>
+        <v>0.0093463569422481494</v>
       </c>
       <c r="AA17" s="0">
-        <v>-1.8948296327862569e-07</v>
+        <v>0.010102916841303149</v>
       </c>
       <c r="AB17" s="0">
-        <v>-1.6498335209601216e-07</v>
+        <v>0.010841212940838129</v>
       </c>
       <c r="AC17" s="0">
-        <v>-1.7054116936837995e-07</v>
+        <v>0.011559207896780636</v>
       </c>
       <c r="AD17" s="0">
-        <v>-4.3205657583793336e-07</v>
+        <v>0.012255283476335102</v>
       </c>
       <c r="AE17" s="0">
-        <v>-9.5670398614177406e-08</v>
+        <v>0.012928204358533294</v>
       </c>
       <c r="AF17" s="0">
-        <v>-9.8387291977086045e-08</v>
+        <v>0.013577074478933221</v>
       </c>
       <c r="AG17" s="0">
-        <v>-7.2059076106836207e-08</v>
+        <v>0.014201296093010359</v>
       </c>
       <c r="AH17" s="0">
-        <v>-8.6360761043209316e-08</v>
+        <v>0.014800526544280558</v>
       </c>
       <c r="AI17" s="0">
-        <v>-4.5080963237993974e-07</v>
+        <v>0.015374670656651589</v>
       </c>
       <c r="AJ17" s="0">
-        <v>-4.3553966551669279e-07</v>
+        <v>0.015923793654687997</v>
       </c>
       <c r="AK17" s="0">
-        <v>-4.1015289163343417e-07</v>
+        <v>0.01644816868878023</v>
       </c>
       <c r="AL17" s="0">
-        <v>-3.8216933167300886e-07</v>
+        <v>0.016948152761101756</v>
       </c>
       <c r="AM17" s="0">
-        <v>-3.7045003978474614e-07</v>
+        <v>0.017424277460593465</v>
       </c>
       <c r="AN17" s="0">
-        <v>-3.4809607258273743e-07</v>
+        <v>0.017877108202114148</v>
       </c>
       <c r="AO17" s="0">
-        <v>-3.5297568842163114e-07</v>
+        <v>0.018307338237459406</v>
       </c>
       <c r="AP17" s="0">
-        <v>-3.1947689452072876e-07</v>
+        <v>0.018715681085458659</v>
       </c>
       <c r="AQ17" s="0">
-        <v>-2.813420138316359e-07</v>
+        <v>0.019102922889551375</v>
       </c>
       <c r="AR17" s="0">
-        <v>-2.7331703814826953e-07</v>
+        <v>0.019469859969911123</v>
       </c>
       <c r="AS17" s="0">
-        <v>-2.3382235731471685e-07</v>
+        <v>0.019817265381954618</v>
       </c>
       <c r="AT17" s="0">
-        <v>-2.377386887486121e-07</v>
+        <v>0.020146091594997795</v>
       </c>
       <c r="AU17" s="0">
-        <v>-2.465209922880585e-07</v>
+        <v>0.020457177604047722</v>
       </c>
       <c r="AV17" s="0">
-        <v>-2.274295933087389e-07</v>
+        <v>0.020751241429087245</v>
       </c>
       <c r="AW17" s="0">
-        <v>-2.3155365914080593e-07</v>
+        <v>0.021029177678085827</v>
       </c>
       <c r="AX17" s="0">
-        <v>-2.1290981390713287e-07</v>
+        <v>0.021291801542977822</v>
       </c>
       <c r="AY17" s="0">
-        <v>-2.2271940599354835e-07</v>
+        <v>0.021539919051800707</v>
       </c>
       <c r="AZ17" s="0">
-        <v>-1.2987470272241383e-07</v>
+        <v>0.02177430887571712</v>
       </c>
       <c r="BA17" s="0">
-        <v>-2.0338867990747245e-07</v>
+        <v>0.021995719214280635</v>
       </c>
       <c r="BB17" s="0">
-        <v>-1.854871051378637e-07</v>
+        <v>0.022204896615252497</v>
       </c>
       <c r="BC17" s="0">
-        <v>-2.002725097551852e-07</v>
+        <v>0.022402549819051102</v>
       </c>
       <c r="BD17" s="0">
-        <v>-1.8683321054998652e-07</v>
+        <v>0.022589407848609688</v>
       </c>
       <c r="BE17" s="0">
-        <v>-1.6830072880339615e-07</v>
+        <v>0.02276604689632249</v>
       </c>
       <c r="BF17" s="0">
-        <v>-1.9596259127608429e-07</v>
+        <v>0.022933151901417266</v>
       </c>
       <c r="BG17" s="0">
-        <v>-1.5876192196949653e-07</v>
+        <v>0.023091303439215869</v>
       </c>
       <c r="BH17" s="0">
-        <v>-1.3666624785594017e-07</v>
+        <v>0.023241107879279493</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.038500523616307292</v>
+        <v>-0.027935982680044658</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.067613712766667153</v>
+        <v>-0.049655720946398196</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.088724003061701695</v>
+        <v>-0.067438838926639891</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.10493920276463116</v>
+        <v>-0.082378526486870315</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.11785842140977475</v>
+        <v>-0.095116174664105116</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.12847136666838679</v>
+        <v>-0.10610805351706117</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.13744060724409213</v>
+        <v>-0.11569898759545072</v>
       </c>
       <c r="H18" s="0">
-        <v>-0.14522470413265326</v>
+        <v>-0.12415546484297534</v>
       </c>
       <c r="I18" s="0">
-        <v>-0.15214303074830149</v>
+        <v>-0.1316819913404802</v>
       </c>
       <c r="J18" s="0">
-        <v>-0.15842480605155645</v>
+        <v>-0.13843645674110472</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.16423057318297879</v>
+        <v>-0.1445402486787164</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.16968005800014491</v>
+        <v>-0.15008659218857054</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.17485645656714471</v>
+        <v>-0.15514755913079098</v>
       </c>
       <c r="N18" s="0">
-        <v>-0.17981698641461483</v>
+        <v>-0.15977890373596373</v>
       </c>
       <c r="O18" s="0">
-        <v>-0.1846045612337415</v>
+        <v>-0.16402377078590197</v>
       </c>
       <c r="P18" s="0">
-        <v>-0.18924930340164933</v>
+        <v>-0.16791697828121468</v>
       </c>
       <c r="Q18" s="0">
-        <v>-0.19377116013111001</v>
+        <v>-0.17148650909402099</v>
       </c>
       <c r="R18" s="0">
-        <v>-0.19818513096400339</v>
+        <v>-0.17475577082369842</v>
       </c>
       <c r="S18" s="0">
-        <v>-0.20250039030757369</v>
+        <v>-0.17774411447125285</v>
       </c>
       <c r="T18" s="0">
-        <v>-0.20672136898881843</v>
+        <v>-0.18046901922000338</v>
       </c>
       <c r="U18" s="0">
-        <v>-0.2108530745769967</v>
+        <v>-0.18294600343073067</v>
       </c>
       <c r="V18" s="0">
-        <v>-0.21489680746906351</v>
+        <v>-0.18518934044877211</v>
       </c>
       <c r="W18" s="0">
-        <v>-0.21885262990878609</v>
+        <v>-0.1872128274815793</v>
       </c>
       <c r="X18" s="0">
-        <v>-0.22272038273576411</v>
+        <v>-0.18902883191187123</v>
       </c>
       <c r="Y18" s="0">
-        <v>-0.22649927720092308</v>
+        <v>-0.19064991850745641</v>
       </c>
       <c r="Z18" s="0">
-        <v>-0.23018846460930564</v>
+        <v>-0.19208799063555423</v>
       </c>
       <c r="AA18" s="0">
-        <v>-0.2337868676245094</v>
+        <v>-0.19335461551255387</v>
       </c>
       <c r="AB18" s="0">
-        <v>-0.23729377397110601</v>
+        <v>-0.19446107404069529</v>
       </c>
       <c r="AC18" s="0">
-        <v>-0.24070773661584943</v>
+        <v>-0.19541833626706667</v>
       </c>
       <c r="AD18" s="0">
-        <v>-0.24402905158662441</v>
+        <v>-0.1962370683953028</v>
       </c>
       <c r="AE18" s="0">
-        <v>-0.24725669408484133</v>
+        <v>-0.19692761228653244</v>
       </c>
       <c r="AF18" s="0">
-        <v>-0.25038981273681393</v>
+        <v>-0.19749956813088415</v>
       </c>
       <c r="AG18" s="0">
-        <v>-0.25342929333905739</v>
+        <v>-0.19796302725935658</v>
       </c>
       <c r="AH18" s="0">
-        <v>-0.25637475789248465</v>
+        <v>-0.19832730295636014</v>
       </c>
       <c r="AI18" s="0">
-        <v>-0.25922691534984993</v>
+        <v>-0.19860169758166724</v>
       </c>
       <c r="AJ18" s="0">
-        <v>-0.26198728880027872</v>
+        <v>-0.198794396182914</v>
       </c>
       <c r="AK18" s="0">
-        <v>-0.26465602713288583</v>
+        <v>-0.19891358799810299</v>
       </c>
       <c r="AL18" s="0">
-        <v>-0.26723357851426799</v>
+        <v>-0.19896706591909361</v>
       </c>
       <c r="AM18" s="0">
-        <v>-0.26972179368228916</v>
+        <v>-0.19896245357778414</v>
       </c>
       <c r="AN18" s="0">
-        <v>-0.27212201717874823</v>
+        <v>-0.19890651648425384</v>
       </c>
       <c r="AO18" s="0">
-        <v>-0.27443571619391577</v>
+        <v>-0.19880627564351511</v>
       </c>
       <c r="AP18" s="0">
-        <v>-0.27666459624242301</v>
+        <v>-0.19866797539441269</v>
       </c>
       <c r="AQ18" s="0">
-        <v>-0.27881042689081975</v>
+        <v>-0.19849755804033012</v>
       </c>
       <c r="AR18" s="0">
-        <v>-0.28087510961337014</v>
+        <v>-0.19830068266489961</v>
       </c>
       <c r="AS18" s="0">
-        <v>-0.2828605205338362</v>
+        <v>-0.19808283077963187</v>
       </c>
       <c r="AT18" s="0">
-        <v>-0.28476883502176248</v>
+        <v>-0.19784908918876179</v>
       </c>
       <c r="AU18" s="0">
-        <v>-0.28660181764914505</v>
+        <v>-0.19760425442966886</v>
       </c>
       <c r="AV18" s="0">
-        <v>-0.28836202637586972</v>
+        <v>-0.19735285247771539</v>
       </c>
       <c r="AW18" s="0">
-        <v>-0.29005166564926455</v>
+        <v>-0.19709876197005791</v>
       </c>
       <c r="AX18" s="0">
-        <v>-0.29167238749488028</v>
+        <v>-0.19684656733878028</v>
       </c>
       <c r="AY18" s="0">
-        <v>-0.29322692230627484</v>
+        <v>-0.19659987451662023</v>
       </c>
       <c r="AZ18" s="0">
-        <v>-0.2947175490918657</v>
+        <v>-0.19636231336588816</v>
       </c>
       <c r="BA18" s="0">
-        <v>-0.29614608943396559</v>
+        <v>-0.19613724877459662</v>
       </c>
       <c r="BB18" s="0">
-        <v>-0.29751494042329951</v>
+        <v>-0.19592806674231733</v>
       </c>
       <c r="BC18" s="0">
-        <v>-0.29882635131320784</v>
+        <v>-0.19573773505530118</v>
       </c>
       <c r="BD18" s="0">
-        <v>-0.30008248262948833</v>
+        <v>-0.19556894005585751</v>
       </c>
       <c r="BE18" s="0">
-        <v>-0.30128558162154134</v>
+        <v>-0.19542424230611566</v>
       </c>
       <c r="BF18" s="0">
-        <v>-0.3024377504465865</v>
+        <v>-0.19530639797216817</v>
       </c>
       <c r="BG18" s="0">
-        <v>-0.30354112118396037</v>
+        <v>-0.19521783188786082</v>
       </c>
       <c r="BH18" s="0">
-        <v>-0.30459774072232887</v>
+        <v>-0.19516090343141243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.15915560332989476</v>
+        <v>-0.011313491220783909</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0019723329503422474</v>
+        <v>-0.011893654283567878</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.0057569015540389077</v>
+        <v>-0.012909292710194101</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0053033898698179585</v>
+        <v>-0.014185712002328838</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.0048574902405921381</v>
+        <v>-0.015646573610057685</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.0044660516798908697</v>
+        <v>-0.017246230374268093</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.0041194015418946984</v>
+        <v>-0.018957419332558428</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.0038094794173254257</v>
+        <v>-0.020759035261061223</v>
       </c>
       <c r="I19" s="0">
-        <v>-0.0035317700003256363</v>
+        <v>-0.022631207918082465</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.0032820101898034513</v>
+        <v>-0.024558621714233082</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.0030567958811687284</v>
+        <v>-0.026528014789134847</v>
       </c>
       <c r="L19" s="0">
-        <v>-0.0028528179621170116</v>
+        <v>-0.028527686630452131</v>
       </c>
       <c r="M19" s="0">
-        <v>-0.0026676347564792459</v>
+        <v>-0.030547279271379287</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.002499084866675189</v>
+        <v>-0.032577424241808074</v>
       </c>
       <c r="O19" s="0">
-        <v>-0.0023453285624640348</v>
+        <v>-0.034610214074355744</v>
       </c>
       <c r="P19" s="0">
-        <v>-0.002204739324393145</v>
+        <v>-0.036638214892014118</v>
       </c>
       <c r="Q19" s="0">
-        <v>-0.0020759260636590338</v>
+        <v>-0.03865490760646622</v>
       </c>
       <c r="R19" s="0">
-        <v>-0.0019577078793304651</v>
+        <v>-0.040654917921723821</v>
       </c>
       <c r="S19" s="0">
-        <v>-0.001849000625478998</v>
+        <v>-0.042633452870879059</v>
       </c>
       <c r="T19" s="0">
-        <v>-0.001748860509296744</v>
+        <v>-0.04458632455220142</v>
       </c>
       <c r="U19" s="0">
-        <v>-0.0016564666933586926</v>
+        <v>-0.046510084777103035</v>
       </c>
       <c r="V19" s="0">
-        <v>-0.0015710491142154638</v>
+        <v>-0.048401751257759827</v>
       </c>
       <c r="W19" s="0">
-        <v>-0.001491997837354177</v>
+        <v>-0.050259444198310882</v>
       </c>
       <c r="X19" s="0">
-        <v>-0.0014187037940020725</v>
+        <v>-0.052081019153881955</v>
       </c>
       <c r="Y19" s="0">
-        <v>-0.0013506353494628315</v>
+        <v>-0.053865262939130236</v>
       </c>
       <c r="Z19" s="0">
-        <v>-0.0012873464858160638</v>
+        <v>-0.055611320042578294</v>
       </c>
       <c r="AA19" s="0">
-        <v>-0.0012284139255735644</v>
+        <v>-0.057318644016768096</v>
       </c>
       <c r="AB19" s="0">
-        <v>-0.0011734553776566944</v>
+        <v>-0.058987033663008843</v>
       </c>
       <c r="AC19" s="0">
-        <v>-0.0011222237449083499</v>
+        <v>-0.060616581069851239</v>
       </c>
       <c r="AD19" s="0">
-        <v>-0.0010745971385700136</v>
+        <v>-0.062207622832314687</v>
       </c>
       <c r="AE19" s="0">
-        <v>-0.0010296219121272946</v>
+        <v>-0.063760713494035837</v>
       </c>
       <c r="AF19" s="0">
-        <v>-0.0009874624659578547</v>
+        <v>-0.065276592468240607</v>
       </c>
       <c r="AG19" s="0">
-        <v>-0.0009479300053692577</v>
+        <v>-0.066755762479700609</v>
       </c>
       <c r="AH19" s="0">
-        <v>-0.00091101981799128159</v>
+        <v>-0.068200028536977403</v>
       </c>
       <c r="AI19" s="0">
-        <v>-0.00087562068717843907</v>
+        <v>-0.069610172568197057</v>
       </c>
       <c r="AJ19" s="0">
-        <v>-0.00084255905215591738</v>
+        <v>-0.07098736984446842</v>
       </c>
       <c r="AK19" s="0">
-        <v>-0.00081137000982613595</v>
+        <v>-0.072332932677789785</v>
       </c>
       <c r="AL19" s="0">
-        <v>-0.00078188304002263054</v>
+        <v>-0.073648195457453935</v>
       </c>
       <c r="AM19" s="0">
-        <v>-0.00075394423400677044</v>
+        <v>-0.074934564440195917</v>
       </c>
       <c r="AN19" s="0">
-        <v>-0.00072747116441464438</v>
+        <v>-0.076193428873854649</v>
       </c>
       <c r="AO19" s="0">
-        <v>-0.00070232586266165224</v>
+        <v>-0.077426385907637993</v>
       </c>
       <c r="AP19" s="0">
-        <v>-0.0006784504332985131</v>
+        <v>-0.078634751647400011</v>
       </c>
       <c r="AQ19" s="0">
-        <v>-0.00065571304010439001</v>
+        <v>-0.079819732429253692</v>
       </c>
       <c r="AR19" s="0">
-        <v>-0.00063402839868926446</v>
+        <v>-0.080983018076689353</v>
       </c>
       <c r="AS19" s="0">
-        <v>-0.00061329603136346385</v>
+        <v>-0.082125852452951148</v>
       </c>
       <c r="AT19" s="0">
-        <v>-0.00059357827454419455</v>
+        <v>-0.083249837473628754</v>
       </c>
       <c r="AU19" s="0">
-        <v>-0.00057464721535346137</v>
+        <v>-0.084356298545941372</v>
       </c>
       <c r="AV19" s="0">
-        <v>-0.00055646454479956126</v>
+        <v>-0.085446659197071409</v>
       </c>
       <c r="AW19" s="0">
-        <v>-0.00053905849071837417</v>
+        <v>-0.086522145387980823</v>
       </c>
       <c r="AX19" s="0">
-        <v>-0.00052235120911081037</v>
+        <v>-0.087584195059555545</v>
       </c>
       <c r="AY19" s="0">
-        <v>-0.00050625473530546835</v>
+        <v>-0.088634046729662047</v>
       </c>
       <c r="AZ19" s="0">
-        <v>-0.00049075635534861746</v>
+        <v>-0.08967290666784837</v>
       </c>
       <c r="BA19" s="0">
-        <v>-0.00047578160676671038</v>
+        <v>-0.090702059950062752</v>
       </c>
       <c r="BB19" s="0">
-        <v>-0.00046146132607247287</v>
+        <v>-0.091722695959019482</v>
       </c>
       <c r="BC19" s="0">
-        <v>-0.00044754534513219939</v>
+        <v>-0.092736045463686745</v>
       </c>
       <c r="BD19" s="0">
-        <v>-0.00043410637654748841</v>
+        <v>-0.093743235683638501</v>
       </c>
       <c r="BE19" s="0">
-        <v>-0.0004211231880528376</v>
+        <v>-0.094745388505587808</v>
       </c>
       <c r="BF19" s="0">
-        <v>-0.00040854050003775067</v>
+        <v>-0.095743565457325097</v>
       </c>
       <c r="BG19" s="0">
-        <v>-0.00039635216448487986</v>
+        <v>-0.096738869688458906</v>
       </c>
       <c r="BH19" s="0">
-        <v>-0.00038452986441021083</v>
+        <v>-0.097732362032119866</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0062516838719543291</v>
+        <v>0.0093940921099092307</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.006720761287929279</v>
+        <v>0.019850839902086123</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.0070399626923893467</v>
+        <v>0.030315257280018715</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0075463010226888162</v>
+        <v>0.040243245417678944</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.0081744246976456613</v>
+        <v>0.049368292619122005</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0088841966199342728</v>
+        <v>0.057587399378984397</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.0096531821508441824</v>
+        <v>0.064890625158862819</v>
       </c>
       <c r="H20" s="0">
-        <v>-0.010468347119567208</v>
+        <v>0.071324023000277764</v>
       </c>
       <c r="I20" s="0">
-        <v>-0.011318655649016348</v>
+        <v>0.076955570564219616</v>
       </c>
       <c r="J20" s="0">
-        <v>-0.012195976618283418</v>
+        <v>0.081866596835879393</v>
       </c>
       <c r="K20" s="0">
-        <v>-0.013097333054948897</v>
+        <v>0.086140834678737982</v>
       </c>
       <c r="L20" s="0">
-        <v>-0.014017496634473532</v>
+        <v>0.089859009055385047</v>
       </c>
       <c r="M20" s="0">
-        <v>-0.014954190056659464</v>
+        <v>0.093096040984103276</v>
       </c>
       <c r="N20" s="0">
-        <v>-0.015902138126720897</v>
+        <v>0.095919505867084753</v>
       </c>
       <c r="O20" s="0">
-        <v>-0.016860371509926315</v>
+        <v>0.098389528019503583</v>
       </c>
       <c r="P20" s="0">
-        <v>-0.017826939267066438</v>
+        <v>0.10055849828871281</v>
       </c>
       <c r="Q20" s="0">
-        <v>-0.018800143345989846</v>
+        <v>0.10247165246315326</v>
       </c>
       <c r="R20" s="0">
-        <v>-0.019778520349432418</v>
+        <v>0.10416809343326591</v>
       </c>
       <c r="S20" s="0">
-        <v>-0.02076075540940556</v>
+        <v>0.10568106172406809</v>
       </c>
       <c r="T20" s="0">
-        <v>-0.021744809258589591</v>
+        <v>0.10703862572548571</v>
       </c>
       <c r="U20" s="0">
-        <v>-0.022731172764128168</v>
+        <v>0.10826438799652122</v>
       </c>
       <c r="V20" s="0">
-        <v>-0.023718485006672885</v>
+        <v>0.1093783270452031</v>
       </c>
       <c r="W20" s="0">
-        <v>-0.02470559432811396</v>
+        <v>0.11039677675022895</v>
       </c>
       <c r="X20" s="0">
-        <v>-0.025691760141918579</v>
+        <v>0.1113338119707223</v>
       </c>
       <c r="Y20" s="0">
-        <v>-0.026676258309102887</v>
+        <v>0.11220089906405822</v>
       </c>
       <c r="Z20" s="0">
-        <v>-0.027658422196776312</v>
+        <v>0.11300758883621309</v>
       </c>
       <c r="AA20" s="0">
-        <v>-0.028637682033743964</v>
+        <v>0.11376180688145886</v>
       </c>
       <c r="AB20" s="0">
-        <v>-0.029613456339252262</v>
+        <v>0.11447010848531058</v>
       </c>
       <c r="AC20" s="0">
-        <v>-0.030585099126038788</v>
+        <v>0.11513791631746892</v>
       </c>
       <c r="AD20" s="0">
-        <v>-0.0315524229067927</v>
+        <v>0.11576971470118815</v>
       </c>
       <c r="AE20" s="0">
-        <v>-0.032515258780391354</v>
+        <v>0.1163692111003613</v>
       </c>
       <c r="AF20" s="0">
-        <v>-0.033472371495099885</v>
+        <v>0.11693948293329127</v>
       </c>
       <c r="AG20" s="0">
-        <v>-0.034424243968543967</v>
+        <v>0.11748306785248919</v>
       </c>
       <c r="AH20" s="0">
-        <v>-0.035370512254828616</v>
+        <v>0.1180021090559039</v>
       </c>
       <c r="AI20" s="0">
-        <v>-0.03631034670768523</v>
+        <v>0.11849837158242989</v>
       </c>
       <c r="AJ20" s="0">
-        <v>-0.037243779359885834</v>
+        <v>0.11897334447082367</v>
       </c>
       <c r="AK20" s="0">
-        <v>-0.038170622913493629</v>
+        <v>0.11942827746648876</v>
       </c>
       <c r="AL20" s="0">
-        <v>-0.039090650600305192</v>
+        <v>0.11986420297488116</v>
       </c>
       <c r="AM20" s="0">
-        <v>-0.040003723705809929</v>
+        <v>0.12028203359684074</v>
       </c>
       <c r="AN20" s="0">
-        <v>-0.040909661245533892</v>
+        <v>0.12068254357398923</v>
       </c>
       <c r="AO20" s="0">
-        <v>-0.041808345393105295</v>
+        <v>0.12106638601324031</v>
       </c>
       <c r="AP20" s="0">
-        <v>-0.04269965365576802</v>
+        <v>0.12143413118477957</v>
       </c>
       <c r="AQ20" s="0">
-        <v>-0.043583516861466449</v>
+        <v>0.12178627428392585</v>
       </c>
       <c r="AR20" s="0">
-        <v>-0.04445977667910439</v>
+        <v>0.12212325062777205</v>
       </c>
       <c r="AS20" s="0">
-        <v>-0.045328493298214152</v>
+        <v>0.12244543615069292</v>
       </c>
       <c r="AT20" s="0">
-        <v>-0.046189466164154286</v>
+        <v>0.12275309934721917</v>
       </c>
       <c r="AU20" s="0">
-        <v>-0.047042764150679837</v>
+        <v>0.1230466697481946</v>
       </c>
       <c r="AV20" s="0">
-        <v>-0.047888358353887765</v>
+        <v>0.1233262686955198</v>
       </c>
       <c r="AW20" s="0">
-        <v>-0.048726205504849358</v>
+        <v>0.12359259377456085</v>
       </c>
       <c r="AX20" s="0">
-        <v>-0.049556327559193279</v>
+        <v>0.12384533412241863</v>
       </c>
       <c r="AY20" s="0">
-        <v>-0.050378691683681254</v>
+        <v>0.12408443984166966</v>
       </c>
       <c r="AZ20" s="0">
-        <v>-0.051193356411926759</v>
+        <v>0.12431036516061676</v>
       </c>
       <c r="BA20" s="0">
-        <v>-0.052000283294184289</v>
+        <v>0.12452316777192721</v>
       </c>
       <c r="BB20" s="0">
-        <v>-0.052799680232809426</v>
+        <v>0.12472302446875666</v>
       </c>
       <c r="BC20" s="0">
-        <v>-0.053591353604900124</v>
+        <v>0.12490994819166748</v>
       </c>
       <c r="BD20" s="0">
-        <v>-0.054375566975307738</v>
+        <v>0.12508400283005497</v>
       </c>
       <c r="BE20" s="0">
-        <v>-0.055152214536807936</v>
+        <v>0.12524521691194948</v>
       </c>
       <c r="BF20" s="0">
-        <v>-0.055921408935139132</v>
+        <v>0.12539350161973958</v>
       </c>
       <c r="BG20" s="0">
-        <v>-0.056683222709594978</v>
+        <v>0.12552886551149073</v>
       </c>
       <c r="BH20" s="0">
-        <v>-0.05743768293357817</v>
+        <v>0.12565143392399797</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.011084163925515585</v>
+        <v>0.017230415245106906</v>
       </c>
       <c r="B21" s="0">
-        <v>0.023335492543362483</v>
+        <v>0.052283752664648603</v>
       </c>
       <c r="C21" s="0">
-        <v>0.035654518018932428</v>
+        <v>0.084900377185499906</v>
       </c>
       <c r="D21" s="0">
-        <v>0.047060071327232743</v>
+        <v>0.1153602155996241</v>
       </c>
       <c r="E21" s="0">
-        <v>0.057359245727432728</v>
+        <v>0.14365766129725074</v>
       </c>
       <c r="F21" s="0">
-        <v>0.066541348961284205</v>
+        <v>0.16978396886382682</v>
       </c>
       <c r="G21" s="0">
-        <v>0.074670444022683635</v>
+        <v>0.1937790662094524</v>
       </c>
       <c r="H21" s="0">
-        <v>0.081842081252075677</v>
+        <v>0.21570956012326387</v>
       </c>
       <c r="I21" s="0">
-        <v>0.088164040264521598</v>
+        <v>0.23567486904798196</v>
       </c>
       <c r="J21" s="0">
-        <v>0.093736602059533408</v>
+        <v>0.25378813644847503</v>
       </c>
       <c r="K21" s="0">
-        <v>0.0986600802350589</v>
+        <v>0.27017037773746494</v>
       </c>
       <c r="L21" s="0">
-        <v>0.10301629611747475</v>
+        <v>0.28494493124056097</v>
       </c>
       <c r="M21" s="0">
-        <v>0.1068811561634995</v>
+        <v>0.29823405565981653</v>
       </c>
       <c r="N21" s="0">
-        <v>0.11032319895563038</v>
+        <v>0.31015648598379209</v>
       </c>
       <c r="O21" s="0">
-        <v>0.11339832357269065</v>
+        <v>0.32082631240325954</v>
       </c>
       <c r="P21" s="0">
-        <v>0.11615582743884588</v>
+        <v>0.33035193812054908</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.11863890742627625</v>
+        <v>0.33883552739405803</v>
       </c>
       <c r="R21" s="0">
-        <v>0.12088305440713719</v>
+        <v>0.34637284469862606</v>
       </c>
       <c r="S21" s="0">
-        <v>0.12291954839703562</v>
+        <v>0.35305277212319131</v>
       </c>
       <c r="T21" s="0">
-        <v>0.12477561516278186</v>
+        <v>0.35895863542974449</v>
       </c>
       <c r="U21" s="0">
-        <v>0.12647425932850309</v>
+        <v>0.36416734539597506</v>
       </c>
       <c r="V21" s="0">
-        <v>0.1280352995425878</v>
+        <v>0.36874975911803309</v>
       </c>
       <c r="W21" s="0">
-        <v>0.12947558821636038</v>
+        <v>0.37277154082627434</v>
       </c>
       <c r="X21" s="0">
-        <v>0.1308097173534529</v>
+        <v>0.37629252952639491</v>
       </c>
       <c r="Y21" s="0">
-        <v>0.13205016893395258</v>
+        <v>0.37936714242520569</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.13320760722063948</v>
+        <v>0.38204586183947631</v>
       </c>
       <c r="AA21" s="0">
-        <v>0.13429121089326906</v>
+        <v>0.38437436723948704</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.13530892888332391</v>
+        <v>0.386394249709273</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.1362674581143917</v>
+        <v>0.38814329243001244</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.13717275551426969</v>
+        <v>0.38965575819494963</v>
       </c>
       <c r="AE21" s="0">
-        <v>0.13802897166317479</v>
+        <v>0.39096226988480964</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.13884154478211705</v>
+        <v>0.3920913425209438</v>
       </c>
       <c r="AG21" s="0">
-        <v>0.13961375072480509</v>
+        <v>0.39306837008765999</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.14034879514474022</v>
+        <v>0.39391624320255192</v>
       </c>
       <c r="AI21" s="0">
-        <v>0.14104879024230918</v>
+        <v>0.39465564466472647</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.14171631916812222</v>
+        <v>0.39530567259591903</v>
       </c>
       <c r="AK21" s="0">
-        <v>0.14235334475880076</v>
+        <v>0.39588269364754425</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.14296150039065181</v>
+        <v>0.39640180907877465</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.14354219652861497</v>
+        <v>0.39687648109437607</v>
       </c>
       <c r="AN21" s="0">
-        <v>0.14409658703370926</v>
+        <v>0.39731932592419</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.14462568808818035</v>
+        <v>0.39774110790665068</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.14513039518458226</v>
+        <v>0.39815220191369932</v>
       </c>
       <c r="AQ21" s="0">
-        <v>0.14561133006664176</v>
+        <v>0.39856137325607799</v>
       </c>
       <c r="AR21" s="0">
-        <v>0.14606913511194791</v>
+        <v>0.3989767141929646</v>
       </c>
       <c r="AS21" s="0">
-        <v>0.14650426419376217</v>
+        <v>0.39940569336374687</v>
       </c>
       <c r="AT21" s="0">
-        <v>0.14691726776270853</v>
+        <v>0.3998549714184409</v>
       </c>
       <c r="AU21" s="0">
-        <v>0.14730835811205109</v>
+        <v>0.40033059896719453</v>
       </c>
       <c r="AV21" s="0">
-        <v>0.14767788492233758</v>
+        <v>0.40083821107875989</v>
       </c>
       <c r="AW21" s="0">
-        <v>0.14802594884970108</v>
+        <v>0.40138260797243241</v>
       </c>
       <c r="AX21" s="0">
-        <v>0.14835312268343481</v>
+        <v>0.40196808278803453</v>
       </c>
       <c r="AY21" s="0">
-        <v>0.14865900118623776</v>
+        <v>0.40259914293542576</v>
       </c>
       <c r="AZ21" s="0">
-        <v>0.14894440916260895</v>
+        <v>0.40327967062953868</v>
       </c>
       <c r="BA21" s="0">
-        <v>0.14920865635082609</v>
+        <v>0.40401318356365057</v>
       </c>
       <c r="BB21" s="0">
-        <v>0.14945243600475022</v>
+        <v>0.40480295849027509</v>
       </c>
       <c r="BC21" s="0">
-        <v>0.14967584709255458</v>
+        <v>0.40565222663539108</v>
       </c>
       <c r="BD21" s="0">
-        <v>0.14987873388394241</v>
+        <v>0.40656363376797949</v>
       </c>
       <c r="BE21" s="0">
-        <v>0.15006128143136957</v>
+        <v>0.4075397963986967</v>
       </c>
       <c r="BF21" s="0">
-        <v>0.15022354226003712</v>
+        <v>0.40858329334027971</v>
       </c>
       <c r="BG21" s="0">
-        <v>0.15036558083771387</v>
+        <v>0.40969649172078432</v>
       </c>
       <c r="BH21" s="0">
-        <v>0.15048754061083158</v>
+        <v>0.41088165539367438</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.010107105096272592</v>
+        <v>-0.014531892629375941</v>
       </c>
       <c r="B22" s="0">
-        <v>0.057457868050068993</v>
+        <v>-0.049392057189813522</v>
       </c>
       <c r="C22" s="0">
-        <v>0.097461351270212132</v>
+        <v>-0.081826180453057007</v>
       </c>
       <c r="D22" s="0">
-        <v>0.13232688090629044</v>
+        <v>-0.11211319982470068</v>
       </c>
       <c r="E22" s="0">
-        <v>0.16305193038025351</v>
+        <v>-0.14024735131358096</v>
       </c>
       <c r="F22" s="0">
-        <v>0.1902816802866846</v>
+        <v>-0.1662214236016348</v>
       </c>
       <c r="G22" s="0">
-        <v>0.21450800552189997</v>
+        <v>-0.19006814365681765</v>
       </c>
       <c r="H22" s="0">
-        <v>0.23613288270208083</v>
+        <v>-0.21186245227306932</v>
       </c>
       <c r="I22" s="0">
-        <v>0.25549082660233535</v>
+        <v>-0.23170066229973355</v>
       </c>
       <c r="J22" s="0">
-        <v>0.27286568993379501</v>
+        <v>-0.24969397424948125</v>
       </c>
       <c r="K22" s="0">
-        <v>0.28850239493214835</v>
+        <v>-0.26596345004629024</v>
       </c>
       <c r="L22" s="0">
-        <v>0.30260343301352988</v>
+        <v>-0.28063215746203996</v>
       </c>
       <c r="M22" s="0">
-        <v>0.31534869342762678</v>
+        <v>-0.29382191218612341</v>
       </c>
       <c r="N22" s="0">
-        <v>0.32688868326982967</v>
+        <v>-0.30565099025790488</v>
       </c>
       <c r="O22" s="0">
-        <v>0.33735635255073593</v>
+        <v>-0.31623306730082362</v>
       </c>
       <c r="P22" s="0">
-        <v>0.34686715846466709</v>
+        <v>-0.32567615060615157</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.35552086178447362</v>
+        <v>-0.33408201453455932</v>
       </c>
       <c r="R22" s="0">
-        <v>0.36340654416423751</v>
+        <v>-0.34154608168099876</v>
       </c>
       <c r="S22" s="0">
-        <v>0.37060172346686654</v>
+        <v>-0.34815693610925286</v>
       </c>
       <c r="T22" s="0">
-        <v>0.37717368682713698</v>
+        <v>-0.35399755679461814</v>
       </c>
       <c r="U22" s="0">
-        <v>0.38318532068992406</v>
+        <v>-0.35914452428498816</v>
       </c>
       <c r="V22" s="0">
-        <v>0.38868972498314897</v>
+        <v>-0.36366847132814761</v>
       </c>
       <c r="W22" s="0">
-        <v>0.39373391170240951</v>
+        <v>-0.36763482380217416</v>
       </c>
       <c r="X22" s="0">
-        <v>0.39836184079512393</v>
+        <v>-0.37110321926772538</v>
       </c>
       <c r="Y22" s="0">
-        <v>0.40261225432474151</v>
+        <v>-0.37412777086145926</v>
       </c>
       <c r="Z22" s="0">
-        <v>0.40652001788565612</v>
+        <v>-0.37675882113573317</v>
       </c>
       <c r="AA22" s="0">
-        <v>0.4101164420640192</v>
+        <v>-0.37904187104018844</v>
       </c>
       <c r="AB22" s="0">
-        <v>0.4134301377007113</v>
+        <v>-0.38101834750395208</v>
       </c>
       <c r="AC22" s="0">
-        <v>0.41648638827570394</v>
+        <v>-0.38272588331350299</v>
       </c>
       <c r="AD22" s="0">
-        <v>0.41930892773114653</v>
+        <v>-0.38419860343953705</v>
       </c>
       <c r="AE22" s="0">
-        <v>0.42191870490975802</v>
+        <v>-0.38546701226063468</v>
       </c>
       <c r="AF22" s="0">
-        <v>0.42433477958320787</v>
+        <v>-0.38655949299317094</v>
       </c>
       <c r="AG22" s="0">
-        <v>0.42657505016347369</v>
+        <v>-0.38750133582203544</v>
       </c>
       <c r="AH22" s="0">
-        <v>0.42865513826434981</v>
+        <v>-0.38831534869754014</v>
       </c>
       <c r="AI22" s="0">
-        <v>0.43058973919566845</v>
+        <v>-0.38902211941717868</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0.43239298491919864</v>
+        <v>-0.38964066539389708</v>
       </c>
       <c r="AK22" s="0">
-        <v>0.43407663538199837</v>
+        <v>-0.39018729039437205</v>
       </c>
       <c r="AL22" s="0">
-        <v>0.43565107000699221</v>
+        <v>-0.39067700017936413</v>
       </c>
       <c r="AM22" s="0">
-        <v>0.43712708831754521</v>
+        <v>-0.39112322204227395</v>
       </c>
       <c r="AN22" s="0">
-        <v>0.43851405430275492</v>
+        <v>-0.39153851965603392</v>
       </c>
       <c r="AO22" s="0">
-        <v>0.43982045426176453</v>
+        <v>-0.39193358398384637</v>
       </c>
       <c r="AP22" s="0">
-        <v>0.44105418139916425</v>
+        <v>-0.39231876431865509</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0.44222248785003399</v>
+        <v>-0.39270276633659595</v>
       </c>
       <c r="AR22" s="0">
-        <v>0.44333195723075841</v>
+        <v>-0.39309365013495595</v>
       </c>
       <c r="AS22" s="0">
-        <v>0.44438865921396198</v>
+        <v>-0.39349884576614713</v>
       </c>
       <c r="AT22" s="0">
-        <v>0.44539825582463488</v>
+        <v>-0.39392498823410477</v>
       </c>
       <c r="AU22" s="0">
-        <v>0.44636582753967946</v>
+        <v>-0.39437809651775479</v>
       </c>
       <c r="AV22" s="0">
-        <v>0.44729587115393221</v>
+        <v>-0.39486377902770403</v>
       </c>
       <c r="AW22" s="0">
-        <v>0.44819308882287295</v>
+        <v>-0.39538680460644043</v>
       </c>
       <c r="AX22" s="0">
-        <v>0.44906148014738106</v>
+        <v>-0.39595144181546998</v>
       </c>
       <c r="AY22" s="0">
-        <v>0.44990436577132281</v>
+        <v>-0.39656219089441047</v>
       </c>
       <c r="AZ22" s="0">
-        <v>0.45072533094416617</v>
+        <v>-0.39722290653019721</v>
       </c>
       <c r="BA22" s="0">
-        <v>0.45152726359081141</v>
+        <v>-0.39793709763488594</v>
       </c>
       <c r="BB22" s="0">
-        <v>0.45231298746857601</v>
+        <v>-0.39870800852702998</v>
       </c>
       <c r="BC22" s="0">
-        <v>0.45308533936350659</v>
+        <v>-0.3995388463862537</v>
       </c>
       <c r="BD22" s="0">
-        <v>0.45384646451545302</v>
+        <v>-0.40043225311765784</v>
       </c>
       <c r="BE22" s="0">
-        <v>0.45459852197892708</v>
+        <v>-0.40139083900987144</v>
       </c>
       <c r="BF22" s="0">
-        <v>0.45534379116163282</v>
+        <v>-0.40241716411747142</v>
       </c>
       <c r="BG22" s="0">
-        <v>0.45608375781959737</v>
+        <v>-0.40351358247196317</v>
       </c>
       <c r="BH22" s="0">
-        <v>0.45682031564628633</v>
+        <v>-0.40468233410429255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0053061239243833089</v>
+        <v>0.14686808410578858</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.052425729070723757</v>
+        <v>0.17457199478694413</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.092043515148227298</v>
+        <v>0.19749701315539492</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.12655254462814472</v>
+        <v>0.21642490181587185</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.15695336968776075</v>
+        <v>0.23196510006917653</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.18388447161374305</v>
+        <v>0.2446439972355888</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.20783596774128829</v>
+        <v>0.25492393988477818</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.22920709275035359</v>
+        <v>0.26320826345265341</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.24833208913663354</v>
+        <v>0.26984499949818969</v>
       </c>
       <c r="J23" s="0">
-        <v>-0.26548993979577407</v>
+        <v>0.27513118775194717</v>
       </c>
       <c r="K23" s="0">
-        <v>-0.28092155761892057</v>
+        <v>0.27931790537153056</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.29483355054419352</v>
+        <v>0.28261570075509707</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.30740244791600574</v>
+        <v>0.28519984840953982</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.31877730250225389</v>
+        <v>0.28721515761792771</v>
       </c>
       <c r="O23" s="0">
-        <v>-0.32909075308465363</v>
+        <v>0.28878052540522076</v>
       </c>
       <c r="P23" s="0">
-        <v>-0.33845697109482753</v>
+        <v>0.28999301833376545</v>
       </c>
       <c r="Q23" s="0">
-        <v>-0.34697498915907232</v>
+        <v>0.29093116119991963</v>
       </c>
       <c r="R23" s="0">
-        <v>-0.3547331563937639</v>
+        <v>0.29165838502439123</v>
       </c>
       <c r="S23" s="0">
-        <v>-0.36180833377814686</v>
+        <v>0.29222539215346621</v>
       </c>
       <c r="T23" s="0">
-        <v>-0.36826725491394646</v>
+        <v>0.29267228983994864</v>
       </c>
       <c r="U23" s="0">
-        <v>-0.37417226346351173</v>
+        <v>0.29303044328983874</v>
       </c>
       <c r="V23" s="0">
-        <v>-0.37957593889939101</v>
+        <v>0.29332427280798673</v>
       </c>
       <c r="W23" s="0">
-        <v>-0.38452493712897184</v>
+        <v>0.29357254284431034</v>
       </c>
       <c r="X23" s="0">
-        <v>-0.38906276355263836</v>
+        <v>0.29378951104466378</v>
       </c>
       <c r="Y23" s="0">
-        <v>-0.39322783460192834</v>
+        <v>0.29398560010808528</v>
       </c>
       <c r="Z23" s="0">
-        <v>-0.39705464337340013</v>
+        <v>0.29416845215464837</v>
       </c>
       <c r="AA23" s="0">
-        <v>-0.40057427571527265</v>
+        <v>0.29434334939894646</v>
       </c>
       <c r="AB23" s="0">
-        <v>-0.40381501414895965</v>
+        <v>0.29451381706577284</v>
       </c>
       <c r="AC23" s="0">
-        <v>-0.40680200133066696</v>
+        <v>0.29468200125116073</v>
       </c>
       <c r="AD23" s="0">
-        <v>-0.40955866753487619</v>
+        <v>0.29484901074488218</v>
       </c>
       <c r="AE23" s="0">
-        <v>-0.41210540439200705</v>
+        <v>0.29501517339314565</v>
       </c>
       <c r="AF23" s="0">
-        <v>-0.41446166452975497</v>
+        <v>0.29518024716275304</v>
       </c>
       <c r="AG23" s="0">
-        <v>-0.41664462348601078</v>
+        <v>0.2953432041825047</v>
       </c>
       <c r="AH23" s="0">
-        <v>-0.41866989432750884</v>
+        <v>0.29550389535187516</v>
       </c>
       <c r="AI23" s="0">
-        <v>-0.42055214570948923</v>
+        <v>0.29566085289696303</v>
       </c>
       <c r="AJ23" s="0">
-        <v>-0.42230498954489376</v>
+        <v>0.29581286112532335</v>
       </c>
       <c r="AK23" s="0">
-        <v>-0.42394015647941663</v>
+        <v>0.29595867914704893</v>
       </c>
       <c r="AL23" s="0">
-        <v>-0.42546854626850994</v>
+        <v>0.29609706427439414</v>
       </c>
       <c r="AM23" s="0">
-        <v>-0.42690044398436688</v>
+        <v>0.29622680086354941</v>
       </c>
       <c r="AN23" s="0">
-        <v>-0.42824499966072888</v>
+        <v>0.29634673312776766</v>
       </c>
       <c r="AO23" s="0">
-        <v>-0.42951062404364604</v>
+        <v>0.29645568600969135</v>
       </c>
       <c r="AP23" s="0">
-        <v>-0.43070518064170155</v>
+        <v>0.29655266550509329</v>
       </c>
       <c r="AQ23" s="0">
-        <v>-0.43183574083716308</v>
+        <v>0.29663673131414592</v>
       </c>
       <c r="AR23" s="0">
-        <v>-0.43290886826785846</v>
+        <v>0.29670689383396021</v>
       </c>
       <c r="AS23" s="0">
-        <v>-0.43393059341304385</v>
+        <v>0.296762369722605</v>
       </c>
       <c r="AT23" s="0">
-        <v>-0.43490635086712609</v>
+        <v>0.29680238246648583</v>
       </c>
       <c r="AU23" s="0">
-        <v>-0.43584108395144328</v>
+        <v>0.2968262124027945</v>
       </c>
       <c r="AV23" s="0">
-        <v>-0.43673973848012027</v>
+        <v>0.29683318914269774</v>
       </c>
       <c r="AW23" s="0">
-        <v>-0.43760648562518972</v>
+        <v>0.29682311108578918</v>
       </c>
       <c r="AX23" s="0">
-        <v>-0.43844533763425431</v>
+        <v>0.2967947807071778</v>
       </c>
       <c r="AY23" s="0">
-        <v>-0.4392596675665541</v>
+        <v>0.29674783652852788</v>
       </c>
       <c r="AZ23" s="0">
-        <v>-0.44005294738828882</v>
+        <v>0.29668140306676777</v>
       </c>
       <c r="BA23" s="0">
-        <v>-0.44082804148565835</v>
+        <v>0.29659534731164927</v>
       </c>
       <c r="BB23" s="0">
-        <v>-0.44158781726404339</v>
+        <v>0.29648913930416843</v>
       </c>
       <c r="BC23" s="0">
-        <v>-0.44233487297980317</v>
+        <v>0.29636224078883222</v>
       </c>
       <c r="BD23" s="0">
-        <v>-0.4430714208198836</v>
+        <v>0.29621416951646301</v>
       </c>
       <c r="BE23" s="0">
-        <v>-0.44379973468568684</v>
+        <v>0.29604459785820825</v>
       </c>
       <c r="BF23" s="0">
-        <v>-0.44452165938931681</v>
+        <v>0.29585263254967709</v>
       </c>
       <c r="BG23" s="0">
-        <v>-0.44523914052894936</v>
+        <v>0.29563810466002172</v>
       </c>
       <c r="BH23" s="0">
-        <v>-0.44595373720207582</v>
+        <v>0.29540029589357925</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2045073592820712</v>
+        <v>0</v>
       </c>
       <c r="B24" s="0">
-        <v>0.23473520663732506</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0">
-        <v>0.25955477084439382</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>0.27869954332938601</v>
+        <v>0</v>
       </c>
       <c r="E24" s="0">
-        <v>0.29355568808651317</v>
+        <v>0</v>
       </c>
       <c r="F24" s="0">
-        <v>0.30512037567766898</v>
+        <v>0</v>
       </c>
       <c r="G24" s="0">
-        <v>0.31413229580391228</v>
+        <v>0</v>
       </c>
       <c r="H24" s="0">
-        <v>0.32115017009498353</v>
+        <v>0</v>
       </c>
       <c r="I24" s="0">
-        <v>0.32660311681815712</v>
+        <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>0.33082263442547194</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
-        <v>0.33406898807626773</v>
+        <v>0</v>
       </c>
       <c r="L24" s="0">
-        <v>0.33654394710733126</v>
+        <v>0</v>
       </c>
       <c r="M24" s="0">
-        <v>0.33840920919359152</v>
+        <v>0</v>
       </c>
       <c r="N24" s="0">
-        <v>0.33979214457900764</v>
+        <v>0</v>
       </c>
       <c r="O24" s="0">
-        <v>0.34079414157842242</v>
+        <v>0</v>
       </c>
       <c r="P24" s="0">
-        <v>0.34149622841967392</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.34196318257007441</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0">
-        <v>0.34224689523023866</v>
+        <v>0</v>
       </c>
       <c r="S24" s="0">
-        <v>0.34238895605806452</v>
+        <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>0.34242266905012336</v>
+        <v>0</v>
       </c>
       <c r="U24" s="0">
-        <v>0.34237473073649433</v>
+        <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.34226648392475228</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0.34211485280443599</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
-        <v>0.34193291584332958</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.34173214485581421</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>0.34152017841151372</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
-        <v>0.34130346610155426</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.34108679973568429</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0">
-        <v>0.34087387245334499</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="0">
-        <v>0.34066724589698344</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="0">
-        <v>0.34046824400446524</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="0">
-        <v>0.3402783034448098</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="0">
-        <v>0.34009803512879277</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="0">
-        <v>0.33992701775397344</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="0">
-        <v>0.33976540963399127</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="0">
-        <v>0.33961271498081819</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="0">
-        <v>0.33946834149086158</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="0">
-        <v>0.33933145776208434</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>0.33920103158182563</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0.33907606330950402</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="0">
-        <v>0.33895567107214286</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="0">
-        <v>0.33883872557491418</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="0">
-        <v>0.33872416294281515</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="0">
-        <v>0.33861091424528061</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>0.3384978790325136</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="0">
-        <v>0.3383841281036738</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="0">
-        <v>0.33826854045733917</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0.33815027891409205</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="0">
-        <v>0.33802840648788857</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="0">
-        <v>0.33790211539283982</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="0">
-        <v>0.33777043451868366</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0.33763281969171238</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="0">
-        <v>0.33748830970797633</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="0">
-        <v>0.33733630100261575</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="0">
-        <v>0.33717625721870004</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="0">
-        <v>0.33700751654871108</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="0">
-        <v>0.33682961686417173</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="0">
-        <v>0.33664196074276859</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.33644419539010822</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="0">
-        <v>0.33623579536312731</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0</v>
-      </c>
-      <c r="B25" s="0">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0">
-        <v>0</v>
-      </c>
-      <c r="E25" s="0">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0</v>
-      </c>
-      <c r="G25" s="0">
-        <v>0</v>
-      </c>
-      <c r="H25" s="0">
-        <v>0</v>
-      </c>
-      <c r="I25" s="0">
-        <v>0</v>
-      </c>
-      <c r="J25" s="0">
-        <v>0</v>
-      </c>
-      <c r="K25" s="0">
-        <v>0</v>
-      </c>
-      <c r="L25" s="0">
-        <v>0</v>
-      </c>
-      <c r="M25" s="0">
-        <v>0</v>
-      </c>
-      <c r="N25" s="0">
-        <v>0</v>
-      </c>
-      <c r="O25" s="0">
-        <v>0</v>
-      </c>
-      <c r="P25" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="0">
-        <v>0</v>
-      </c>
-      <c r="R25" s="0">
-        <v>0</v>
-      </c>
-      <c r="S25" s="0">
-        <v>0</v>
-      </c>
-      <c r="T25" s="0">
-        <v>0</v>
-      </c>
-      <c r="U25" s="0">
-        <v>0</v>
-      </c>
-      <c r="V25" s="0">
-        <v>0</v>
-      </c>
-      <c r="W25" s="0">
-        <v>0</v>
-      </c>
-      <c r="X25" s="0">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="0">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="0">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="0">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="0">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="0">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="0">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="0">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="0">
-        <v>0</v>
-      </c>
-      <c r="BF25" s="0">
-        <v>0</v>
-      </c>
-      <c r="BG25" s="0">
-        <v>0</v>
-      </c>
-      <c r="BH25" s="0">
         <v>0</v>
       </c>
     </row>
